--- a/explore_census_adj.xlsx
+++ b/explore_census_adj.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isken\Documents\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33317B4-C18F-4DE7-B21D-972F50847B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9CAD92-DA82-48DC-B168-81C3F19EB16A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8985" tabRatio="780" xr2:uid="{5831E6B1-140F-4CFC-A885-73B56A2DEAC1}"/>
   </bookViews>
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>day</t>
   </si>
@@ -335,13 +335,7 @@
     <t>&lt;-- This is day in which to start applying social distancing rate</t>
   </si>
   <si>
-    <t>gap</t>
-  </si>
-  <si>
-    <t>mingap_t</t>
-  </si>
-  <si>
-    <t>&lt;- This is decision variable in Solver model. Can do this with Data Table too.</t>
+    <t xml:space="preserve">&lt;- This is decision variable in Solver model. </t>
   </si>
 </sst>
 </file>
@@ -8627,64 +8621,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E37E87-2EB5-4B75-B179-5255268F651C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9667875" y="4810125"/>
-          <a:ext cx="238125" cy="95250"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8673353" cy="6297706"/>
@@ -8716,7 +8652,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8749,7 +8685,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8790,7 +8726,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8823,7 +8759,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8856,7 +8792,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -9290,9 +9226,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A8ED5C-2B82-4BE0-8FF2-889EAE1F391A}">
-  <dimension ref="A2:J150"/>
+  <dimension ref="A2:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -9396,7 +9332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>13</v>
       </c>
@@ -9408,8 +9344,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>18</v>
       </c>
@@ -9417,7 +9353,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>19</v>
       </c>
@@ -9426,7 +9362,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>22</v>
       </c>
@@ -9437,7 +9373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>26</v>
       </c>
@@ -9448,7 +9384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>20</v>
       </c>
@@ -9462,7 +9398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>25</v>
       </c>
@@ -9470,10 +9406,10 @@
         <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>34</v>
       </c>
@@ -9492,16 +9428,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
-        <v>43</v>
-      </c>
-      <c r="J27" s="6">
-        <f>INDEX(I30:I150,MATCH(J29,J30:J150,0))</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>15</v>
       </c>
@@ -9521,7 +9448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
         <v>43831</v>
       </c>
@@ -9533,15 +9460,8 @@
         <v>0</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="I29" t="s">
-        <v>42</v>
-      </c>
-      <c r="J29">
-        <f>E26</f>
-        <v>1.8854022788334532</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>43832</v>
       </c>
@@ -9562,15 +9482,8 @@
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f t="dataTable" ref="J30:J150" dt2D="0" dtr="0" r1="E25"/>
-        <v>7181756.4045217615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>43833</v>
       </c>
@@ -9591,14 +9504,8 @@
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>5943712.6444166927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
         <v>43834</v>
       </c>
@@ -9619,14 +9526,8 @@
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32">
-        <v>4919088.9620188465</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
         <v>43835</v>
       </c>
@@ -9647,14 +9548,8 @@
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33">
-        <v>3</v>
-      </c>
-      <c r="J33">
-        <v>4071094.953760657</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
         <v>43836</v>
       </c>
@@ -9675,14 +9570,8 @@
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34">
-        <v>4</v>
-      </c>
-      <c r="J34">
-        <v>3369282.3269443987</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>43837</v>
       </c>
@@ -9703,14 +9592,8 @@
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35">
-        <v>5</v>
-      </c>
-      <c r="J35">
-        <v>2788451.6154509978</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>43838</v>
       </c>
@@ -9731,14 +9614,8 @@
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36">
-        <v>6</v>
-      </c>
-      <c r="J36">
-        <v>2307747.3611767981</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>43839</v>
       </c>
@@ -9759,14 +9636,8 @@
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37">
-        <v>7</v>
-      </c>
-      <c r="J37">
-        <v>1909909.2725482185</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>43840</v>
       </c>
@@ -9787,14 +9658,8 @@
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38">
-        <v>8</v>
-      </c>
-      <c r="J38">
-        <v>1580652.4720178815</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>43841</v>
       </c>
@@ -9815,14 +9680,8 @@
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39">
-        <v>9</v>
-      </c>
-      <c r="J39">
-        <v>1308154.5795481533</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>43842</v>
       </c>
@@ -9843,14 +9702,8 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40">
-        <v>10</v>
-      </c>
-      <c r="J40">
-        <v>1082631.2151686181</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>43843</v>
       </c>
@@ -9871,14 +9724,8 @@
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-      <c r="I41">
-        <v>11</v>
-      </c>
-      <c r="J41">
-        <v>895984.67849231872</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>43844</v>
       </c>
@@ -9899,14 +9746,8 @@
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42">
-        <v>12</v>
-      </c>
-      <c r="J42">
-        <v>741513.19058639393</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>43845</v>
       </c>
@@ -9927,14 +9768,8 @@
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43">
-        <v>13</v>
-      </c>
-      <c r="J43">
-        <v>613670.25816031347</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>43846</v>
       </c>
@@ -9958,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="H44" s="3"/>
-      <c r="I44">
-        <v>14</v>
-      </c>
-      <c r="J44">
-        <v>507865.51973989193</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
         <v>43847</v>
       </c>
@@ -9989,14 +9818,8 @@
         <v>0</v>
       </c>
       <c r="H45" s="3"/>
-      <c r="I45">
-        <v>15</v>
-      </c>
-      <c r="J45">
-        <v>420299.92295818171</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
         <v>43848</v>
       </c>
@@ -10020,14 +9843,8 @@
         <v>0</v>
       </c>
       <c r="H46" s="3"/>
-      <c r="I46">
-        <v>16</v>
-      </c>
-      <c r="J46">
-        <v>347829.3147962956</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
         <v>43849</v>
       </c>
@@ -10051,14 +9868,8 @@
         <v>0</v>
       </c>
       <c r="H47" s="3"/>
-      <c r="I47">
-        <v>17</v>
-      </c>
-      <c r="J47">
-        <v>287851.54681001545</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
         <v>43850</v>
       </c>
@@ -10082,14 +9893,8 @@
         <v>0</v>
       </c>
       <c r="H48" s="3"/>
-      <c r="I48">
-        <v>18</v>
-      </c>
-      <c r="J48">
-        <v>238213.04171315974</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
         <v>43851</v>
       </c>
@@ -10113,14 +9918,8 @@
         <v>0</v>
       </c>
       <c r="H49" s="3"/>
-      <c r="I49">
-        <v>19</v>
-      </c>
-      <c r="J49">
-        <v>197131.46647324332</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
         <v>43852</v>
       </c>
@@ -10144,14 +9943,8 @@
         <v>0</v>
       </c>
       <c r="H50" s="3"/>
-      <c r="I50">
-        <v>20</v>
-      </c>
-      <c r="J50">
-        <v>163131.73539955736</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>43853</v>
       </c>
@@ -10175,14 +9968,8 @@
         <v>0</v>
       </c>
       <c r="H51" s="3"/>
-      <c r="I51">
-        <v>21</v>
-      </c>
-      <c r="J51">
-        <v>134993.04533394883</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>43854</v>
       </c>
@@ -10206,14 +9993,8 @@
         <v>0</v>
       </c>
       <c r="H52" s="3"/>
-      <c r="I52">
-        <v>22</v>
-      </c>
-      <c r="J52">
-        <v>111705.04117614028</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>43855</v>
       </c>
@@ -10237,14 +10018,8 @@
         <v>0</v>
       </c>
       <c r="H53" s="3"/>
-      <c r="I53">
-        <v>23</v>
-      </c>
-      <c r="J53">
-        <v>92431.537811570161</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>43856</v>
       </c>
@@ -10268,14 +10043,8 @@
         <v>0</v>
       </c>
       <c r="H54" s="3"/>
-      <c r="I54">
-        <v>24</v>
-      </c>
-      <c r="J54">
-        <v>76480.495831892898</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>43857</v>
       </c>
@@ -10299,14 +10068,8 @@
         <v>0</v>
       </c>
       <c r="H55" s="3"/>
-      <c r="I55">
-        <v>25</v>
-      </c>
-      <c r="J55">
-        <v>63279.172988577055</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>43858</v>
       </c>
@@ -10330,14 +10093,8 @@
         <v>0</v>
       </c>
       <c r="H56" s="3"/>
-      <c r="I56">
-        <v>26</v>
-      </c>
-      <c r="J56">
-        <v>52353.559161249083</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
         <v>43859</v>
       </c>
@@ -10361,14 +10118,8 @@
         <v>0</v>
       </c>
       <c r="H57" s="3"/>
-      <c r="I57">
-        <v>27</v>
-      </c>
-      <c r="J57">
-        <v>43311.356427426697</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
         <v>43860</v>
       </c>
@@ -10392,14 +10143,8 @@
         <v>0</v>
       </c>
       <c r="H58" s="3"/>
-      <c r="I58">
-        <v>28</v>
-      </c>
-      <c r="J58">
-        <v>35827.893111614045</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
         <v>43861</v>
       </c>
@@ -10423,14 +10168,8 @@
         <v>0</v>
       </c>
       <c r="H59" s="3"/>
-      <c r="I59">
-        <v>29</v>
-      </c>
-      <c r="J59">
-        <v>29634.466039951894</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
         <v>43862</v>
       </c>
@@ -10454,14 +10193,8 @@
         <v>0</v>
       </c>
       <c r="H60" s="3"/>
-      <c r="I60">
-        <v>30</v>
-      </c>
-      <c r="J60">
-        <v>24508.692414397225</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
         <v>43863</v>
       </c>
@@ -10485,14 +10218,8 @@
         <v>0</v>
       </c>
       <c r="H61" s="3"/>
-      <c r="I61">
-        <v>31</v>
-      </c>
-      <c r="J61">
-        <v>20266.524878325756</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
         <v>43864</v>
       </c>
@@ -10516,14 +10243,8 @@
         <v>0</v>
       </c>
       <c r="H62" s="3"/>
-      <c r="I62">
-        <v>32</v>
-      </c>
-      <c r="J62">
-        <v>16755.643064431442</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
         <v>43865</v>
       </c>
@@ -10547,14 +10268,8 @@
         <v>0</v>
       </c>
       <c r="H63" s="3"/>
-      <c r="I63">
-        <v>33</v>
-      </c>
-      <c r="J63">
-        <v>13849.98434013017</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
         <v>43866</v>
       </c>
@@ -10578,14 +10293,8 @@
         <v>0</v>
       </c>
       <c r="H64" s="3"/>
-      <c r="I64">
-        <v>34</v>
-      </c>
-      <c r="J64">
-        <v>11445.217369993081</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
         <v>43867</v>
       </c>
@@ -10609,14 +10318,8 @@
         <v>0</v>
       </c>
       <c r="H65" s="3"/>
-      <c r="I65">
-        <v>35</v>
-      </c>
-      <c r="J65">
-        <v>9454.9959677693769</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
         <v>43868</v>
       </c>
@@ -10640,14 +10343,8 @@
         <v>0</v>
       </c>
       <c r="H66" s="3"/>
-      <c r="I66">
-        <v>36</v>
-      </c>
-      <c r="J66">
-        <v>7807.8587278382201</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
         <v>43869</v>
       </c>
@@ -10671,14 +10368,8 @@
         <v>0</v>
       </c>
       <c r="H67" s="3"/>
-      <c r="I67">
-        <v>37</v>
-      </c>
-      <c r="J67">
-        <v>6444.6631134524359</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
         <v>43870</v>
       </c>
@@ -10702,14 +10393,8 @@
         <v>0</v>
       </c>
       <c r="H68" s="3"/>
-      <c r="I68">
-        <v>38</v>
-      </c>
-      <c r="J68">
-        <v>5316.4618694818455</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
         <v>43871</v>
       </c>
@@ -10733,14 +10418,8 @@
         <v>0</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="I69">
-        <v>39</v>
-      </c>
-      <c r="J69">
-        <v>4382.7455095812265</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
         <v>43872</v>
       </c>
@@ -10764,14 +10443,8 @@
         <v>0</v>
       </c>
       <c r="H70" s="3"/>
-      <c r="I70">
-        <v>40</v>
-      </c>
-      <c r="J70">
-        <v>3609.9877720717705</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
         <v>43873</v>
       </c>
@@ -10795,14 +10468,8 @@
         <v>0</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71">
-        <v>41</v>
-      </c>
-      <c r="J71">
-        <v>2970.4418172977835</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
         <v>43874</v>
       </c>
@@ -10826,14 +10493,8 @@
         <v>0</v>
       </c>
       <c r="H72" s="3"/>
-      <c r="I72">
-        <v>42</v>
-      </c>
-      <c r="J72">
-        <v>2441.1439424088039</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
         <v>43875</v>
       </c>
@@ -10857,14 +10518,8 @@
         <v>0</v>
       </c>
       <c r="H73" s="3"/>
-      <c r="I73">
-        <v>43</v>
-      </c>
-      <c r="J73">
-        <v>2003.0890406918561</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
         <v>43876</v>
       </c>
@@ -10888,14 +10543,8 @@
         <v>0</v>
       </c>
       <c r="H74" s="3"/>
-      <c r="I74">
-        <v>44</v>
-      </c>
-      <c r="J74">
-        <v>1640.5481992828613</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
         <v>43877</v>
       </c>
@@ -10919,14 +10568,8 @@
         <v>0</v>
       </c>
       <c r="H75" s="3"/>
-      <c r="I75">
-        <v>45</v>
-      </c>
-      <c r="J75">
-        <v>1340.503932743708</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
         <v>43878</v>
       </c>
@@ -10950,14 +10593,8 @@
         <v>0</v>
       </c>
       <c r="H76" s="3"/>
-      <c r="I76">
-        <v>46</v>
-      </c>
-      <c r="J76">
-        <v>1092.1827738554141</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
         <v>43879</v>
       </c>
@@ -10981,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="H77" s="3"/>
-      <c r="I77">
-        <v>47</v>
-      </c>
-      <c r="J77">
-        <v>886.66843871120886</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
         <v>43880</v>
       </c>
@@ -11012,14 +10643,8 @@
         <v>0</v>
       </c>
       <c r="H78" s="3"/>
-      <c r="I78">
-        <v>48</v>
-      </c>
-      <c r="J78">
-        <v>716.58167631507877</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
         <v>43881</v>
       </c>
@@ -11043,14 +10668,8 @@
         <v>0</v>
       </c>
       <c r="H79" s="3"/>
-      <c r="I79">
-        <v>49</v>
-      </c>
-      <c r="J79">
-        <v>575.81530728248379</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
         <v>43882</v>
       </c>
@@ -11074,14 +10693,8 @@
         <v>0</v>
       </c>
       <c r="H80" s="3"/>
-      <c r="I80">
-        <v>50</v>
-      </c>
-      <c r="J80">
-        <v>459.31493787412592</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
         <v>43883</v>
       </c>
@@ -11105,14 +10718,8 @@
         <v>0</v>
       </c>
       <c r="H81" s="3"/>
-      <c r="I81">
-        <v>51</v>
-      </c>
-      <c r="J81">
-        <v>362.89747562402596</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
         <v>43884</v>
       </c>
@@ -11136,14 +10743,8 @@
         <v>0</v>
       </c>
       <c r="H82" s="3"/>
-      <c r="I82">
-        <v>52</v>
-      </c>
-      <c r="J82">
-        <v>283.10093013699975</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
         <v>43885</v>
       </c>
@@ -11167,14 +10768,8 @@
         <v>0</v>
       </c>
       <c r="H83" s="3"/>
-      <c r="I83">
-        <v>53</v>
-      </c>
-      <c r="J83">
-        <v>217.06010596402717</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
         <v>43886</v>
       </c>
@@ -11198,14 +10793,8 @@
         <v>0</v>
       </c>
       <c r="H84" s="3"/>
-      <c r="I84">
-        <v>54</v>
-      </c>
-      <c r="J84">
-        <v>162.40372415167673</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
         <v>43887</v>
       </c>
@@ -11229,14 +10818,8 @@
         <v>0</v>
       </c>
       <c r="H85" s="3"/>
-      <c r="I85">
-        <v>55</v>
-      </c>
-      <c r="J85">
-        <v>117.16927848526453</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
         <v>43888</v>
       </c>
@@ -11260,14 +10843,8 @@
         <v>0</v>
       </c>
       <c r="H86" s="3"/>
-      <c r="I86">
-        <v>56</v>
-      </c>
-      <c r="J86">
-        <v>79.732569231941</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
         <v>43889</v>
       </c>
@@ -11291,14 +10868,8 @@
         <v>0</v>
       </c>
       <c r="H87" s="3"/>
-      <c r="I87">
-        <v>57</v>
-      </c>
-      <c r="J87">
-        <v>48.749384204020174</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
         <v>43890</v>
       </c>
@@ -11322,14 +10893,8 @@
         <v>0</v>
       </c>
       <c r="H88" s="3"/>
-      <c r="I88">
-        <v>58</v>
-      </c>
-      <c r="J88">
-        <v>23.107233127689796</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
         <v>43891</v>
       </c>
@@ -11353,14 +10918,8 @@
         <v>1</v>
       </c>
       <c r="H89" s="3"/>
-      <c r="I89">
-        <v>59</v>
-      </c>
-      <c r="J89">
-        <v>1.8854022788334532</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
         <v>43892</v>
       </c>
@@ -11384,14 +10943,8 @@
         <v>2.2082911818002908</v>
       </c>
       <c r="H90" s="3"/>
-      <c r="I90">
-        <v>60</v>
-      </c>
-      <c r="J90">
-        <v>15.678104902636505</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
         <v>43893</v>
       </c>
@@ -11415,14 +10968,8 @@
         <v>3.6682587618166345</v>
       </c>
       <c r="H91" s="3"/>
-      <c r="I91">
-        <v>61</v>
-      </c>
-      <c r="J91">
-        <v>30.213928258809034</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
         <v>43894</v>
       </c>
@@ -11446,14 +10993,8 @@
         <v>5.4323247144646931</v>
       </c>
       <c r="H92" s="3"/>
-      <c r="I92">
-        <v>62</v>
-      </c>
-      <c r="J92">
-        <v>42.243994831433476</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
         <v>43895</v>
       </c>
@@ -11477,14 +11018,8 @@
         <v>7.5638300491634709</v>
       </c>
       <c r="H93" s="3"/>
-      <c r="I93">
-        <v>63</v>
-      </c>
-      <c r="J93">
-        <v>52.200259309587047</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
         <v>43896</v>
       </c>
@@ -11508,14 +11043,8 @@
         <v>10.139309149040281</v>
       </c>
       <c r="H94" s="3"/>
-      <c r="I94">
-        <v>64</v>
-      </c>
-      <c r="J94">
-        <v>60.440213906722519</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
         <v>43897</v>
       </c>
@@ -11539,14 +11068,8 @@
         <v>13.251237834332382</v>
       </c>
       <c r="H95" s="3"/>
-      <c r="I95">
-        <v>65</v>
-      </c>
-      <c r="J95">
-        <v>67.259724568762081</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
         <v>43898</v>
       </c>
@@ -11570,14 +11093,8 @@
         <v>17.011353823162199</v>
       </c>
       <c r="H96" s="3"/>
-      <c r="I96">
-        <v>66</v>
-      </c>
-      <c r="J96">
-        <v>72.90365441345304</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
         <v>43899</v>
       </c>
@@ -11601,14 +11118,8 @@
         <v>21.554668815011549</v>
       </c>
       <c r="H97" s="3"/>
-      <c r="I97">
-        <v>67</v>
-      </c>
-      <c r="J97">
-        <v>77.574655848952887</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
         <v>43900</v>
       </c>
@@ -11632,14 +11143,8 @@
         <v>27.04431625580418</v>
       </c>
       <c r="H98" s="3"/>
-      <c r="I98">
-        <v>68</v>
-      </c>
-      <c r="J98">
-        <v>81.440447063732989</v>
-      </c>
-    </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
         <v>43901</v>
       </c>
@@ -11663,14 +11168,8 @@
         <v>33.677408849706445</v>
       </c>
       <c r="H99" s="3"/>
-      <c r="I99">
-        <v>69</v>
-      </c>
-      <c r="J99">
-        <v>84.639834159333816</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
         <v>43902</v>
       </c>
@@ -11694,14 +11193,8 @@
         <v>41.692116138983373</v>
       </c>
       <c r="H100" s="3"/>
-      <c r="I100">
-        <v>70</v>
-      </c>
-      <c r="J100">
-        <v>87.287695158231358</v>
-      </c>
-    </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
         <v>43903</v>
       </c>
@@ -11725,14 +11218,8 @@
         <v>51.376216281327196</v>
       </c>
       <c r="H101" s="3"/>
-      <c r="I101">
-        <v>71</v>
-      </c>
-      <c r="J101">
-        <v>89.479104843893694</v>
-      </c>
-    </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
         <v>43904</v>
       </c>
@@ -11756,14 +11243,8 @@
         <v>63.077429086992176</v>
       </c>
       <c r="H102" s="3"/>
-      <c r="I102">
-        <v>72</v>
-      </c>
-      <c r="J102">
-        <v>91.292748540603668</v>
-      </c>
-    </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
         <v>43905</v>
       </c>
@@ -11787,14 +11268,8 @@
         <v>76.21590133644581</v>
       </c>
       <c r="H103" s="3"/>
-      <c r="I103">
-        <v>73</v>
-      </c>
-      <c r="J103">
-        <v>92.79374740911129</v>
-      </c>
-    </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
         <v>43906</v>
       </c>
@@ -11818,14 +11293,8 @@
         <v>92.091001497788483</v>
       </c>
       <c r="H104" s="3"/>
-      <c r="I104">
-        <v>74</v>
-      </c>
-      <c r="J104">
-        <v>94.035996703913895</v>
-      </c>
-    </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
         <v>43907</v>
       </c>
@@ -11849,14 +11318,8 @@
         <v>111.27274503293518</v>
       </c>
       <c r="H105" s="3"/>
-      <c r="I105">
-        <v>75</v>
-      </c>
-      <c r="J105">
-        <v>95.064100950236138</v>
-      </c>
-    </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
         <v>43908</v>
       </c>
@@ -11880,14 +11343,8 @@
         <v>134.44987659800768</v>
       </c>
       <c r="H106" s="3"/>
-      <c r="I106">
-        <v>76</v>
-      </c>
-      <c r="J106">
-        <v>95.914975525676155</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
         <v>43909</v>
       </c>
@@ -11911,14 +11368,8 @@
         <v>162.45460028750998</v>
       </c>
       <c r="H107" s="3"/>
-      <c r="I107">
-        <v>77</v>
-      </c>
-      <c r="J107">
-        <v>96.619172153323703</v>
-      </c>
-    </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
         <v>43910</v>
       </c>
@@ -11942,14 +11393,8 @@
         <v>196.29246097028931</v>
       </c>
       <c r="H108" s="3"/>
-      <c r="I108">
-        <v>78</v>
-      </c>
-      <c r="J108">
-        <v>97.2019758998497</v>
-      </c>
-    </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
         <v>43911</v>
       </c>
@@ -11973,14 +11418,8 @@
         <v>237.17844964427832</v>
       </c>
       <c r="H109" s="3"/>
-      <c r="I109">
-        <v>79</v>
-      </c>
-      <c r="J109">
-        <v>97.684313067665201</v>
-      </c>
-    </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
         <v>43912</v>
       </c>
@@ -12004,14 +11443,8 @@
         <v>286.5806292182458</v>
       </c>
       <c r="H110" s="3"/>
-      <c r="I110">
-        <v>80</v>
-      </c>
-      <c r="J110">
-        <v>98.08350258016074</v>
-      </c>
-    </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
         <v>43913</v>
       </c>
@@ -12035,14 +11468,8 @@
         <v>341.2873247906831</v>
       </c>
       <c r="H111" s="3"/>
-      <c r="I111">
-        <v>81</v>
-      </c>
-      <c r="J111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
         <v>43914</v>
       </c>
@@ -12066,14 +11493,8 @@
         <v>401.83251867312248</v>
       </c>
       <c r="H112" s="3"/>
-      <c r="I112">
-        <v>82</v>
-      </c>
-      <c r="J112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
         <v>43915</v>
       </c>
@@ -12097,14 +11518,8 @@
         <v>468.79604196257344</v>
       </c>
       <c r="H113" s="3"/>
-      <c r="I113">
-        <v>83</v>
-      </c>
-      <c r="J113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
         <v>43916</v>
       </c>
@@ -12128,14 +11543,8 @@
         <v>542.80563822191823</v>
       </c>
       <c r="H114" s="3"/>
-      <c r="I114">
-        <v>84</v>
-      </c>
-      <c r="J114">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
         <v>43917</v>
       </c>
@@ -12155,18 +11564,12 @@
         <v>1.8854022788334532</v>
       </c>
       <c r="G115" s="3">
-        <f t="shared" si="10"/>
+        <f>SUM(E101:E114)</f>
         <v>624.5385997458327</v>
       </c>
       <c r="H115" s="3"/>
-      <c r="I115">
-        <v>85</v>
-      </c>
-      <c r="J115">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
         <v>43918</v>
       </c>
@@ -12190,14 +11593,8 @@
         <v>714.72278921900113</v>
       </c>
       <c r="H116" s="3"/>
-      <c r="I116">
-        <v>86</v>
-      </c>
-      <c r="J116">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
         <v>43919</v>
       </c>
@@ -12221,14 +11618,8 @@
         <v>814.13680934145202</v>
       </c>
       <c r="H117" s="3"/>
-      <c r="I117">
-        <v>87</v>
-      </c>
-      <c r="J117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
         <v>43920</v>
       </c>
@@ -12252,14 +11643,8 @@
         <v>923.60902101377849</v>
       </c>
       <c r="H118" s="3"/>
-      <c r="I118">
-        <v>88</v>
-      </c>
-      <c r="J118">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
         <v>43921</v>
       </c>
@@ -12283,14 +11668,8 @@
         <v>1044.0150343479634</v>
       </c>
       <c r="H119" s="3"/>
-      <c r="I119">
-        <v>89</v>
-      </c>
-      <c r="J119">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
         <v>43922</v>
       </c>
@@ -12314,14 +11693,8 @@
         <v>1176.2732029452891</v>
       </c>
       <c r="H120" s="3"/>
-      <c r="I120">
-        <v>90</v>
-      </c>
-      <c r="J120">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
         <v>43923</v>
       </c>
@@ -12345,14 +11718,8 @@
         <v>1321.337536733759</v>
       </c>
       <c r="H121" s="3"/>
-      <c r="I121">
-        <v>91</v>
-      </c>
-      <c r="J121">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
         <v>43924</v>
       </c>
@@ -12376,14 +11743,8 @@
         <v>1480.1873075377728</v>
       </c>
       <c r="H122" s="3"/>
-      <c r="I122">
-        <v>92</v>
-      </c>
-      <c r="J122">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
         <v>43925</v>
       </c>
@@ -12407,14 +11768,8 @@
         <v>1653.8124488255644</v>
       </c>
       <c r="H123" s="3"/>
-      <c r="I123">
-        <v>93</v>
-      </c>
-      <c r="J123">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
         <v>43926</v>
       </c>
@@ -12438,14 +11793,8 @@
         <v>1843.1936399081167</v>
       </c>
       <c r="H124" s="3"/>
-      <c r="I124">
-        <v>94</v>
-      </c>
-      <c r="J124">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
         <v>43927</v>
       </c>
@@ -12453,7 +11802,7 @@
         <v>96</v>
       </c>
       <c r="D125" s="2">
-        <f t="shared" ref="D125:D156" si="11">IF(C125&lt;tzero_trial,0,EXP(lambda1*(C125-tzero_trial)))</f>
+        <f t="shared" ref="D125:D149" si="11">IF(C125&lt;tzero_trial,0,EXP(lambda1*(C125-tzero_trial)))</f>
         <v>1097.3607472261767</v>
       </c>
       <c r="E125" s="2">
@@ -12469,14 +11818,8 @@
         <v>2054.261229325205</v>
       </c>
       <c r="H125" s="3"/>
-      <c r="I125">
-        <v>95</v>
-      </c>
-      <c r="J125">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
         <v>43928</v>
       </c>
@@ -12488,11 +11831,11 @@
         <v>1325.931314127168</v>
       </c>
       <c r="E126" s="2">
-        <f t="shared" ref="E126:E157" si="12">IF(C126&lt;=tprime,D126,INDEX($D$30:$D$149,tprime)*EXP(lambda2*(C126-tprime)))</f>
+        <f t="shared" ref="E126:E149" si="12">IF(C126&lt;=tprime,D126,INDEX($D$30:$D$149,tprime)*EXP(lambda2*(C126-tprime)))</f>
         <v>335.77142658487099</v>
       </c>
       <c r="F126">
-        <f t="shared" ref="F126:F157" si="13">ABS(E126-admrate_today)</f>
+        <f t="shared" ref="F126:F149" si="13">ABS(E126-admrate_today)</f>
         <v>235.77142658487099</v>
       </c>
       <c r="G126" s="3">
@@ -12500,14 +11843,8 @@
         <v>2289.4985675618273</v>
       </c>
       <c r="H126" s="3"/>
-      <c r="I126">
-        <v>96</v>
-      </c>
-      <c r="J126">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
         <v>43929</v>
       </c>
@@ -12531,14 +11868,8 @@
         <v>2551.6733782633446</v>
       </c>
       <c r="H127" s="3"/>
-      <c r="I127">
-        <v>97</v>
-      </c>
-      <c r="J127">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
         <v>43930</v>
       </c>
@@ -12562,14 +11893,8 @@
         <v>2843.8703223438652</v>
       </c>
       <c r="H128" s="3"/>
-      <c r="I128">
-        <v>98</v>
-      </c>
-      <c r="J128">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
         <v>43931</v>
       </c>
@@ -12593,14 +11918,8 @@
         <v>3169.5272910722515</v>
       </c>
       <c r="H129" s="3"/>
-      <c r="I129">
-        <v>99</v>
-      </c>
-      <c r="J129">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
         <v>43932</v>
       </c>
@@ -12624,14 +11943,8 @@
         <v>3532.4758551480495</v>
       </c>
       <c r="H130" s="3"/>
-      <c r="I130">
-        <v>100</v>
-      </c>
-      <c r="J130">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
         <v>43933</v>
       </c>
@@ -12655,14 +11968,8 @@
         <v>3936.9863456775934</v>
       </c>
       <c r="H131" s="3"/>
-      <c r="I131">
-        <v>101</v>
-      </c>
-      <c r="J131">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
         <v>43934</v>
       </c>
@@ -12686,14 +11993,8 @@
         <v>4387.8180974579354</v>
       </c>
       <c r="H132" s="3"/>
-      <c r="I132">
-        <v>102</v>
-      </c>
-      <c r="J132">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
         <v>43935</v>
       </c>
@@ -12717,14 +12018,8 @@
         <v>4890.2754457142419</v>
       </c>
       <c r="H133" s="3"/>
-      <c r="I133">
-        <v>103</v>
-      </c>
-      <c r="J133">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
         <v>43936</v>
       </c>
@@ -12748,14 +12043,8 @@
         <v>5450.2701351294781</v>
       </c>
       <c r="H134" s="3"/>
-      <c r="I134">
-        <v>104</v>
-      </c>
-      <c r="J134">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
         <v>43937</v>
       </c>
@@ -12779,14 +12068,8 @@
         <v>6074.3908754501063</v>
       </c>
       <c r="H135" s="3"/>
-      <c r="I135">
-        <v>105</v>
-      </c>
-      <c r="J135">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
         <v>43938</v>
       </c>
@@ -12810,14 +12093,8 @@
         <v>6769.9808620357398</v>
       </c>
       <c r="H136" s="3"/>
-      <c r="I136">
-        <v>106</v>
-      </c>
-      <c r="J136">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
         <v>43939</v>
       </c>
@@ -12841,14 +12118,8 @@
         <v>7545.2241734335257</v>
       </c>
       <c r="H137" s="3"/>
-      <c r="I137">
-        <v>107</v>
-      </c>
-      <c r="J137">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
         <v>43940</v>
       </c>
@@ -12872,14 +12143,8 @@
         <v>8409.2420625021678</v>
       </c>
       <c r="H138" s="3"/>
-      <c r="I138">
-        <v>108</v>
-      </c>
-      <c r="J138">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
         <v>43941</v>
       </c>
@@ -12903,14 +12168,8 @@
         <v>9372.20027401466</v>
       </c>
       <c r="H139" s="3"/>
-      <c r="I139">
-        <v>109</v>
-      </c>
-      <c r="J139">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
         <v>43942</v>
       </c>
@@ -12934,14 +12193,8 @@
         <v>10445.428651402648</v>
       </c>
       <c r="H140" s="3"/>
-      <c r="I140">
-        <v>110</v>
-      </c>
-      <c r="J140">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
         <v>43943</v>
       </c>
@@ -12965,14 +12218,8 @@
         <v>11641.554439895306</v>
       </c>
       <c r="H141" s="3"/>
-      <c r="I141">
-        <v>111</v>
-      </c>
-      <c r="J141">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
         <v>43944</v>
       </c>
@@ -12996,14 +12243,8 @@
         <v>12974.650854452702</v>
       </c>
       <c r="H142" s="3"/>
-      <c r="I142">
-        <v>112</v>
-      </c>
-      <c r="J142">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
         <v>43945</v>
       </c>
@@ -13027,14 +12268,8 @@
         <v>14460.402660494205</v>
       </c>
       <c r="H143" s="3"/>
-      <c r="I143">
-        <v>113</v>
-      </c>
-      <c r="J143">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
         <v>43946</v>
       </c>
@@ -13058,14 +12293,8 @@
         <v>16116.290715589226</v>
       </c>
       <c r="H144" s="3"/>
-      <c r="I144">
-        <v>114</v>
-      </c>
-      <c r="J144">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
         <v>43947</v>
       </c>
@@ -13089,14 +12318,8 @@
         <v>17961.79764336595</v>
       </c>
       <c r="H145" s="3"/>
-      <c r="I145">
-        <v>115</v>
-      </c>
-      <c r="J145">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
         <v>43948</v>
       </c>
@@ -13120,14 +12343,8 @@
         <v>20018.637059528315</v>
       </c>
       <c r="H146" s="3"/>
-      <c r="I146">
-        <v>116</v>
-      </c>
-      <c r="J146">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
         <v>43949</v>
       </c>
@@ -13151,14 +12368,8 @@
         <v>22311.009046977699</v>
       </c>
       <c r="H147" s="3"/>
-      <c r="I147">
-        <v>117</v>
-      </c>
-      <c r="J147">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
         <v>43950</v>
       </c>
@@ -13182,14 +12393,8 @@
         <v>24865.884885873922</v>
       </c>
       <c r="H148" s="3"/>
-      <c r="I148">
-        <v>118</v>
-      </c>
-      <c r="J148">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
         <v>43951</v>
       </c>
@@ -13213,25 +12418,10 @@
         <v>27713.324388673995</v>
       </c>
       <c r="H149" s="3"/>
-      <c r="I149">
-        <v>119</v>
-      </c>
-      <c r="J149">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I150">
-        <v>120</v>
-      </c>
-      <c r="J150">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/explore_census_adj.xlsx
+++ b/explore_census_adj.xlsx
@@ -8,67 +8,68 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isken\Documents\projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9CAD92-DA82-48DC-B168-81C3F19EB16A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF809083-C805-47ED-A348-47541A7ADEFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8985" tabRatio="780" xr2:uid="{5831E6B1-140F-4CFC-A885-73B56A2DEAC1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="8985" tabRatio="780" activeTab="1" xr2:uid="{5831E6B1-140F-4CFC-A885-73B56A2DEAC1}"/>
   </bookViews>
   <sheets>
-    <sheet name="model" sheetId="1" r:id="rId1"/>
-    <sheet name="dispo_scatter" sheetId="5" r:id="rId2"/>
-    <sheet name="dispo_scatter_all" sheetId="6" r:id="rId3"/>
-    <sheet name="dispositions" sheetId="2" r:id="rId4"/>
-    <sheet name="admits_scatter" sheetId="8" r:id="rId5"/>
-    <sheet name="admits" sheetId="3" r:id="rId6"/>
-    <sheet name="cencus_scatter" sheetId="7" r:id="rId7"/>
-    <sheet name="census" sheetId="4" r:id="rId8"/>
-    <sheet name="twin_growth" sheetId="9" r:id="rId9"/>
-    <sheet name="SIR" sheetId="10" r:id="rId10"/>
+    <sheet name="ShortTermCap" sheetId="11" r:id="rId1"/>
+    <sheet name="model" sheetId="1" r:id="rId2"/>
+    <sheet name="dispo_scatter" sheetId="5" r:id="rId3"/>
+    <sheet name="dispo_scatter_all" sheetId="6" r:id="rId4"/>
+    <sheet name="dispositions" sheetId="2" r:id="rId5"/>
+    <sheet name="admits_scatter" sheetId="8" r:id="rId6"/>
+    <sheet name="admits" sheetId="3" r:id="rId7"/>
+    <sheet name="cencus_scatter" sheetId="7" r:id="rId8"/>
+    <sheet name="census" sheetId="4" r:id="rId9"/>
+    <sheet name="twin_growth" sheetId="9" r:id="rId10"/>
+    <sheet name="SIR" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="admrate_today">model!$E$23</definedName>
     <definedName name="census_today">model!$E$22</definedName>
     <definedName name="day_today">model!$E$21</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">admits!$A$1:$D$122</definedName>
-    <definedName name="ExternalData_1" localSheetId="7" hidden="1">census!$A$1:$D$122</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">dispositions!$A$1:$D$122</definedName>
-    <definedName name="ExternalData_1" localSheetId="9" hidden="1">SIR!$A$1:$D$122</definedName>
+    <definedName name="ExternalData_1" localSheetId="6" hidden="1">admits!$A$1:$D$122</definedName>
+    <definedName name="ExternalData_1" localSheetId="8" hidden="1">census!$A$1:$D$122</definedName>
+    <definedName name="ExternalData_1" localSheetId="4" hidden="1">dispositions!$A$1:$D$122</definedName>
+    <definedName name="ExternalData_1" localSheetId="10" hidden="1">SIR!$A$1:$D$122</definedName>
     <definedName name="hosp_rate">model!$H$7</definedName>
     <definedName name="lambda1">model!$G$15</definedName>
     <definedName name="lambda2">model!$G$14</definedName>
     <definedName name="market_share">model!$H$8</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">model!$E$25</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">model!$E$25</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">model!$E$25</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">model!$E$26</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">4</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">integer</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">model!$E$25</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">model!$E$25</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">model!$E$25</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">model!$E$26</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">4</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">integer</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="today">model!$E$21</definedName>
     <definedName name="tprime">model!$E$24</definedName>
     <definedName name="tzero">model!$G$26</definedName>
@@ -99,7 +100,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Some hard coding going on but just trying out POF of census adjustment for time zero effects.</t>
+          <t>Some hard coding going on but just trying out POF of census adjustment for time zero effects.
+This is only an approximation for while still in exponential growth phase of epidemic.</t>
         </r>
         <r>
           <rPr>
@@ -207,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>day</t>
   </si>
@@ -329,13 +331,16 @@
     <t>plucked from trendline of dispos scatter</t>
   </si>
   <si>
-    <t>Input params from recent model run (whcy can't Excel handle json yet - grrrr!)</t>
-  </si>
-  <si>
     <t>&lt;-- This is day in which to start applying social distancing rate</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;- This is decision variable in Solver model. </t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Input params from recent model run.</t>
   </si>
 </sst>
 </file>
@@ -412,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -424,6 +429,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,6 +448,1645 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>census (hard coded lag 14 cumsum)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>model!$C$29:$C$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>model!$G$29:$G$133</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2082911818002908</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6682587618166345</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.4323247144646931</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5638300491634709</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10.139309149040281</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13.251237834332382</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>17.011353823162199</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>21.554668815011549</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>27.04431625580418</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33.677408849706445</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>41.692116138983373</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51.376216281327196</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>63.077429086992176</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>76.21590133644581</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>92.091001497788483</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>111.27274503293518</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>134.44987659800768</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>162.45460028750998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>196.29246097028931</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>237.17844964427832</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>286.5806292182458</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>341.2873247906831</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>401.83251867312248</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>468.79604196257344</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>542.80563822191823</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>624.5385997458327</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>714.72278921900113</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>814.13680934145202</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>923.60902101377849</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1044.0150343479634</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1176.2732029452891</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1321.337536733759</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1480.1873075377728</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1653.8124488255644</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1843.1936399081167</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2054.261229325205</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2289.4985675618273</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2551.6733782633446</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2843.8703223438652</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3169.5272910722515</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3532.4758551480495</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3936.9863456775934</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4387.8180974579354</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4890.2754457142419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97E5-4A5D-9B84-957C9D9E3BEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>model!$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>capacity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>model!$C$29:$C$133</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>model!$H$29:$H$133</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="105"/>
+                <c:pt idx="1">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97E5-4A5D-9B84-957C9D9E3BEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1554359487"/>
+        <c:axId val="1549185951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1554359487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1549185951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1549185951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1554359487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -917,7 +2562,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1936,7 +3581,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2699,7 +4344,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3158,7 +4803,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3562,7 +5207,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5429,6 +7074,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8564,7 +10249,534 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{56840907-1260-4C00-B5D6-2EB55C98E9A8}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E9333F45-494E-4CD7-B49D-4632463B2158}">
   <sheetPr/>
   <sheetViews>
@@ -8575,7 +10787,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AF8751E6-AE79-47B7-A2D6-CD020DB275A9}">
   <sheetPr/>
   <sheetViews>
@@ -8586,7 +10798,7 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{21CF6331-8E45-49FA-85CF-D39A88CCD3F5}">
   <sheetPr/>
   <sheetViews>
@@ -8597,22 +10809,22 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4717C26D-14C2-4402-AB0B-3F5BA7E96F76}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7C1762B0-0AD0-43D0-B6E3-7D8BA2F72C75}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="81" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8620,6 +10832,39 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8666574" cy="6291204"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EAFDE36-D202-4F32-839C-AEC91789B75E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8652,7 +10897,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8685,7 +10930,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8726,7 +10971,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -8759,11 +11004,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673353" cy="6297706"/>
+    <xdr:ext cx="8666574" cy="6291204"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8792,11 +11037,11 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8673353" cy="6297706"/>
+    <xdr:ext cx="8666574" cy="6291204"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9226,10 +11471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A8ED5C-2B82-4BE0-8FF2-889EAE1F391A}">
-  <dimension ref="A2:H149"/>
+  <dimension ref="A2:H304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9244,7 +11489,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9395,7 +11640,7 @@
         <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -9406,7 +11651,7 @@
         <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -9447,6 +11692,9 @@
       <c r="G28" t="s">
         <v>37</v>
       </c>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="1">
@@ -9480,8 +11728,12 @@
         <f t="shared" ref="F30:F61" si="2">ABS(E30-admrate_today)</f>
         <v>100</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="G30" s="11">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
@@ -9502,8 +11754,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="11">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="1">
@@ -9524,8 +11780,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="G32" s="11">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="1">
@@ -9546,8 +11806,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="11">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="1">
@@ -9568,8 +11832,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
+      <c r="G34" s="11">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
@@ -9590,8 +11858,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
@@ -9612,8 +11884,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
@@ -9634,8 +11910,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="G37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
@@ -9656,8 +11936,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="G38" s="11">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
@@ -9678,8 +11962,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+      <c r="G39" s="11">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
@@ -9700,8 +11988,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
@@ -9722,8 +12014,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="G41" s="11">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
@@ -9744,8 +12040,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
+      <c r="G42" s="11">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
@@ -9766,8 +12066,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
@@ -9792,7 +12096,9 @@
         <f>SUM(E30:E43)</f>
         <v>0</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="1">
@@ -9817,7 +12123,9 @@
         <f t="shared" ref="G45:G108" si="3">SUM(E31:E44)</f>
         <v>0</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="1">
@@ -9842,7 +12150,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H46" s="3"/>
+      <c r="H46" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="1">
@@ -9867,7 +12177,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H47" s="3"/>
+      <c r="H47" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="1">
@@ -9892,7 +12204,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H48" s="3"/>
+      <c r="H48" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="1">
@@ -9917,7 +12231,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H49" s="3"/>
+      <c r="H49" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="1">
@@ -9942,7 +12258,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H50" s="3"/>
+      <c r="H50" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
@@ -9967,7 +12285,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H51" s="3"/>
+      <c r="H51" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
@@ -9992,7 +12312,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H52" s="3"/>
+      <c r="H52" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
@@ -10017,7 +12339,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
@@ -10042,7 +12366,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H54" s="3"/>
+      <c r="H54" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
@@ -10067,7 +12393,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H55" s="3"/>
+      <c r="H55" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
@@ -10092,7 +12420,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H56" s="3"/>
+      <c r="H56" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="1">
@@ -10117,7 +12447,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="1">
@@ -10142,7 +12474,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H58" s="3"/>
+      <c r="H58" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1">
@@ -10167,7 +12501,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H59" s="3"/>
+      <c r="H59" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B60" s="1">
@@ -10192,7 +12528,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H60" s="3"/>
+      <c r="H60" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" s="1">
@@ -10217,7 +12555,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H61" s="3"/>
+      <c r="H61" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B62" s="1">
@@ -10242,7 +12582,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H62" s="3"/>
+      <c r="H62" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="1">
@@ -10267,7 +12609,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B64" s="1">
@@ -10292,7 +12636,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H64" s="3"/>
+      <c r="H64" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="1">
@@ -10317,7 +12663,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H65" s="3"/>
+      <c r="H65" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="1">
@@ -10342,7 +12690,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H66" s="3"/>
+      <c r="H66" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="1">
@@ -10367,7 +12717,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H67" s="3"/>
+      <c r="H67" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="1">
@@ -10392,7 +12744,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H68" s="3"/>
+      <c r="H68" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="1">
@@ -10417,7 +12771,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H69" s="3"/>
+      <c r="H69" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="1">
@@ -10442,7 +12798,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H70" s="3"/>
+      <c r="H70" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="1">
@@ -10467,7 +12825,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H71" s="3"/>
+      <c r="H71" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="1">
@@ -10492,7 +12852,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H72" s="3"/>
+      <c r="H72" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="1">
@@ -10517,7 +12879,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H73" s="3"/>
+      <c r="H73" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="1">
@@ -10542,7 +12906,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H74" s="3"/>
+      <c r="H74" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="1">
@@ -10567,7 +12933,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H75" s="3"/>
+      <c r="H75" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="1">
@@ -10592,7 +12960,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H76" s="3"/>
+      <c r="H76" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="1">
@@ -10617,7 +12987,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H77" s="3"/>
+      <c r="H77" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="1">
@@ -10642,7 +13014,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H78" s="3"/>
+      <c r="H78" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="1">
@@ -10667,7 +13041,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H79" s="3"/>
+      <c r="H79" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="1">
@@ -10692,7 +13068,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H80" s="3"/>
+      <c r="H80" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="1">
@@ -10717,7 +13095,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H81" s="3"/>
+      <c r="H81" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B82" s="1">
@@ -10742,7 +13122,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H82" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="1">
@@ -10767,7 +13149,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H83" s="3"/>
+      <c r="H83" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="1">
@@ -10792,7 +13176,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H84" s="3"/>
+      <c r="H84" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B85" s="1">
@@ -10817,7 +13203,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H85" s="3"/>
+      <c r="H85" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B86" s="1">
@@ -10842,7 +13230,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H86" s="3"/>
+      <c r="H86" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="1">
@@ -10867,7 +13257,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H87" s="3"/>
+      <c r="H87" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="1">
@@ -10892,7 +13284,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H88" s="3"/>
+      <c r="H88" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B89" s="1">
@@ -10917,7 +13311,9 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H89" s="3"/>
+      <c r="H89" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B90" s="1">
@@ -10942,7 +13338,9 @@
         <f t="shared" si="3"/>
         <v>2.2082911818002908</v>
       </c>
-      <c r="H90" s="3"/>
+      <c r="H90" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="1">
@@ -10967,7 +13365,9 @@
         <f t="shared" si="3"/>
         <v>3.6682587618166345</v>
       </c>
-      <c r="H91" s="3"/>
+      <c r="H91" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B92" s="1">
@@ -10992,7 +13392,9 @@
         <f t="shared" si="3"/>
         <v>5.4323247144646931</v>
       </c>
-      <c r="H92" s="3"/>
+      <c r="H92" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="1">
@@ -11017,7 +13419,9 @@
         <f t="shared" si="3"/>
         <v>7.5638300491634709</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B94" s="1">
@@ -11042,7 +13446,9 @@
         <f t="shared" si="3"/>
         <v>10.139309149040281</v>
       </c>
-      <c r="H94" s="3"/>
+      <c r="H94" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="1">
@@ -11067,7 +13473,9 @@
         <f t="shared" si="3"/>
         <v>13.251237834332382</v>
       </c>
-      <c r="H95" s="3"/>
+      <c r="H95" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B96" s="1">
@@ -11092,7 +13500,9 @@
         <f t="shared" si="3"/>
         <v>17.011353823162199</v>
       </c>
-      <c r="H96" s="3"/>
+      <c r="H96" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="1">
@@ -11117,7 +13527,9 @@
         <f t="shared" si="3"/>
         <v>21.554668815011549</v>
       </c>
-      <c r="H97" s="3"/>
+      <c r="H97" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="1">
@@ -11142,7 +13554,9 @@
         <f t="shared" si="3"/>
         <v>27.04431625580418</v>
       </c>
-      <c r="H98" s="3"/>
+      <c r="H98" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="1">
@@ -11167,7 +13581,9 @@
         <f t="shared" si="3"/>
         <v>33.677408849706445</v>
       </c>
-      <c r="H99" s="3"/>
+      <c r="H99" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="1">
@@ -11192,7 +13608,9 @@
         <f t="shared" si="3"/>
         <v>41.692116138983373</v>
       </c>
-      <c r="H100" s="3"/>
+      <c r="H100" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="1">
@@ -11217,7 +13635,9 @@
         <f t="shared" si="3"/>
         <v>51.376216281327196</v>
       </c>
-      <c r="H101" s="3"/>
+      <c r="H101" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="1">
@@ -11242,7 +13662,9 @@
         <f t="shared" si="3"/>
         <v>63.077429086992176</v>
       </c>
-      <c r="H102" s="3"/>
+      <c r="H102" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="1">
@@ -11267,7 +13689,9 @@
         <f t="shared" si="3"/>
         <v>76.21590133644581</v>
       </c>
-      <c r="H103" s="3"/>
+      <c r="H103" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="1">
@@ -11292,7 +13716,9 @@
         <f t="shared" si="3"/>
         <v>92.091001497788483</v>
       </c>
-      <c r="H104" s="3"/>
+      <c r="H104" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="1">
@@ -11317,7 +13743,9 @@
         <f t="shared" si="3"/>
         <v>111.27274503293518</v>
       </c>
-      <c r="H105" s="3"/>
+      <c r="H105" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="1">
@@ -11342,7 +13770,9 @@
         <f t="shared" si="3"/>
         <v>134.44987659800768</v>
       </c>
-      <c r="H106" s="3"/>
+      <c r="H106" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="1">
@@ -11367,7 +13797,9 @@
         <f t="shared" si="3"/>
         <v>162.45460028750998</v>
       </c>
-      <c r="H107" s="3"/>
+      <c r="H107" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="1">
@@ -11392,7 +13824,9 @@
         <f t="shared" si="3"/>
         <v>196.29246097028931</v>
       </c>
-      <c r="H108" s="3"/>
+      <c r="H108" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="1">
@@ -11417,7 +13851,9 @@
         <f t="shared" ref="G109:G149" si="10">SUM(E95:E108)</f>
         <v>237.17844964427832</v>
       </c>
-      <c r="H109" s="3"/>
+      <c r="H109" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="1">
@@ -11442,7 +13878,9 @@
         <f t="shared" si="10"/>
         <v>286.5806292182458</v>
       </c>
-      <c r="H110" s="3"/>
+      <c r="H110" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="1">
@@ -11467,7 +13905,9 @@
         <f t="shared" si="10"/>
         <v>341.2873247906831</v>
       </c>
-      <c r="H111" s="3"/>
+      <c r="H111" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="1">
@@ -11492,7 +13932,9 @@
         <f t="shared" si="10"/>
         <v>401.83251867312248</v>
       </c>
-      <c r="H112" s="3"/>
+      <c r="H112" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="1">
@@ -11517,7 +13959,9 @@
         <f t="shared" si="10"/>
         <v>468.79604196257344</v>
       </c>
-      <c r="H113" s="3"/>
+      <c r="H113" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="1">
@@ -11542,7 +13986,9 @@
         <f t="shared" si="10"/>
         <v>542.80563822191823</v>
       </c>
-      <c r="H114" s="3"/>
+      <c r="H114" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B115" s="1">
@@ -11567,7 +14013,9 @@
         <f>SUM(E101:E114)</f>
         <v>624.5385997458327</v>
       </c>
-      <c r="H115" s="3"/>
+      <c r="H115" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B116" s="1">
@@ -11592,7 +14040,9 @@
         <f t="shared" si="10"/>
         <v>714.72278921900113</v>
       </c>
-      <c r="H116" s="3"/>
+      <c r="H116" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="1">
@@ -11617,7 +14067,9 @@
         <f t="shared" si="10"/>
         <v>814.13680934145202</v>
       </c>
-      <c r="H117" s="3"/>
+      <c r="H117" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="1">
@@ -11642,7 +14094,9 @@
         <f t="shared" si="10"/>
         <v>923.60902101377849</v>
       </c>
-      <c r="H118" s="3"/>
+      <c r="H118" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="1">
@@ -11667,7 +14121,9 @@
         <f t="shared" si="10"/>
         <v>1044.0150343479634</v>
       </c>
-      <c r="H119" s="3"/>
+      <c r="H119" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="1">
@@ -11692,7 +14148,9 @@
         <f t="shared" si="10"/>
         <v>1176.2732029452891</v>
       </c>
-      <c r="H120" s="3"/>
+      <c r="H120" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="1">
@@ -11717,7 +14175,9 @@
         <f t="shared" si="10"/>
         <v>1321.337536733759</v>
       </c>
-      <c r="H121" s="3"/>
+      <c r="H121" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="1">
@@ -11742,7 +14202,9 @@
         <f t="shared" si="10"/>
         <v>1480.1873075377728</v>
       </c>
-      <c r="H122" s="3"/>
+      <c r="H122" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="1">
@@ -11767,7 +14229,9 @@
         <f t="shared" si="10"/>
         <v>1653.8124488255644</v>
       </c>
-      <c r="H123" s="3"/>
+      <c r="H123" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="1">
@@ -11792,7 +14256,9 @@
         <f t="shared" si="10"/>
         <v>1843.1936399081167</v>
       </c>
-      <c r="H124" s="3"/>
+      <c r="H124" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="1">
@@ -11817,7 +14283,9 @@
         <f t="shared" si="10"/>
         <v>2054.261229325205</v>
       </c>
-      <c r="H125" s="3"/>
+      <c r="H125" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="1">
@@ -11842,7 +14310,9 @@
         <f t="shared" si="10"/>
         <v>2289.4985675618273</v>
       </c>
-      <c r="H126" s="3"/>
+      <c r="H126" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="1">
@@ -11867,7 +14337,9 @@
         <f t="shared" si="10"/>
         <v>2551.6733782633446</v>
       </c>
-      <c r="H127" s="3"/>
+      <c r="H127" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="1">
@@ -11892,7 +14364,9 @@
         <f t="shared" si="10"/>
         <v>2843.8703223438652</v>
       </c>
-      <c r="H128" s="3"/>
+      <c r="H128" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="129" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B129" s="1">
@@ -11917,7 +14391,9 @@
         <f t="shared" si="10"/>
         <v>3169.5272910722515</v>
       </c>
-      <c r="H129" s="3"/>
+      <c r="H129" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="130" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B130" s="1">
@@ -11942,7 +14418,9 @@
         <f t="shared" si="10"/>
         <v>3532.4758551480495</v>
       </c>
-      <c r="H130" s="3"/>
+      <c r="H130" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="131" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B131" s="1">
@@ -11967,7 +14445,9 @@
         <f t="shared" si="10"/>
         <v>3936.9863456775934</v>
       </c>
-      <c r="H131" s="3"/>
+      <c r="H131" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="132" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B132" s="1">
@@ -11992,7 +14472,9 @@
         <f t="shared" si="10"/>
         <v>4387.8180974579354</v>
       </c>
-      <c r="H132" s="3"/>
+      <c r="H132" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="133" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B133" s="1">
@@ -12017,7 +14499,9 @@
         <f t="shared" si="10"/>
         <v>4890.2754457142419</v>
       </c>
-      <c r="H133" s="3"/>
+      <c r="H133" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="134" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B134" s="1">
@@ -12042,7 +14526,9 @@
         <f t="shared" si="10"/>
         <v>5450.2701351294781</v>
       </c>
-      <c r="H134" s="3"/>
+      <c r="H134" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="135" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B135" s="1">
@@ -12067,7 +14553,9 @@
         <f t="shared" si="10"/>
         <v>6074.3908754501063</v>
       </c>
-      <c r="H135" s="3"/>
+      <c r="H135" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="136" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B136" s="1">
@@ -12092,7 +14580,9 @@
         <f t="shared" si="10"/>
         <v>6769.9808620357398</v>
       </c>
-      <c r="H136" s="3"/>
+      <c r="H136" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="137" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B137" s="1">
@@ -12117,7 +14607,9 @@
         <f t="shared" si="10"/>
         <v>7545.2241734335257</v>
       </c>
-      <c r="H137" s="3"/>
+      <c r="H137" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="138" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B138" s="1">
@@ -12142,7 +14634,9 @@
         <f t="shared" si="10"/>
         <v>8409.2420625021678</v>
       </c>
-      <c r="H138" s="3"/>
+      <c r="H138" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="139" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B139" s="1">
@@ -12167,7 +14661,9 @@
         <f t="shared" si="10"/>
         <v>9372.20027401466</v>
       </c>
-      <c r="H139" s="3"/>
+      <c r="H139" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="140" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B140" s="1">
@@ -12192,7 +14688,9 @@
         <f t="shared" si="10"/>
         <v>10445.428651402648</v>
       </c>
-      <c r="H140" s="3"/>
+      <c r="H140" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="141" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B141" s="1">
@@ -12217,7 +14715,9 @@
         <f t="shared" si="10"/>
         <v>11641.554439895306</v>
       </c>
-      <c r="H141" s="3"/>
+      <c r="H141" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="142" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B142" s="1">
@@ -12242,7 +14742,9 @@
         <f t="shared" si="10"/>
         <v>12974.650854452702</v>
       </c>
-      <c r="H142" s="3"/>
+      <c r="H142" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="143" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B143" s="1">
@@ -12267,7 +14769,9 @@
         <f t="shared" si="10"/>
         <v>14460.402660494205</v>
       </c>
-      <c r="H143" s="3"/>
+      <c r="H143" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="144" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B144" s="1">
@@ -12292,7 +14796,9 @@
         <f t="shared" si="10"/>
         <v>16116.290715589226</v>
       </c>
-      <c r="H144" s="3"/>
+      <c r="H144" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="145" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B145" s="1">
@@ -12317,7 +14823,9 @@
         <f t="shared" si="10"/>
         <v>17961.79764336595</v>
       </c>
-      <c r="H145" s="3"/>
+      <c r="H145" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="146" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B146" s="1">
@@ -12342,7 +14850,9 @@
         <f t="shared" si="10"/>
         <v>20018.637059528315</v>
       </c>
-      <c r="H146" s="3"/>
+      <c r="H146" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="147" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B147" s="1">
@@ -12367,7 +14877,9 @@
         <f t="shared" si="10"/>
         <v>22311.009046977699</v>
       </c>
-      <c r="H147" s="3"/>
+      <c r="H147" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="148" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B148" s="1">
@@ -12392,7 +14904,9 @@
         <f t="shared" si="10"/>
         <v>24865.884885873922</v>
       </c>
-      <c r="H148" s="3"/>
+      <c r="H148" s="3">
+        <v>950</v>
+      </c>
     </row>
     <row r="149" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B149" s="1">
@@ -12417,7 +14931,4194 @@
         <f t="shared" si="10"/>
         <v>27713.324388673995</v>
       </c>
-      <c r="H149" s="3"/>
+      <c r="H149" s="3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B150" s="1">
+        <v>43952</v>
+      </c>
+      <c r="C150">
+        <v>121</v>
+      </c>
+      <c r="D150" s="2">
+        <f t="shared" ref="D150:D213" si="14">IF(C150&lt;tzero_trial,0,EXP(lambda1*(C150-tzero_trial)))</f>
+        <v>124348.21943728304</v>
+      </c>
+      <c r="E150" s="2">
+        <f t="shared" ref="E150:E213" si="15">IF(C150&lt;=tprime,D150,INDEX($D$30:$D$149,tprime)*EXP(lambda2*(C150-tprime)))</f>
+        <v>4529.7756354244375</v>
+      </c>
+      <c r="F150">
+        <f t="shared" ref="F150:F213" si="16">ABS(E150-admrate_today)</f>
+        <v>4429.7756354244375</v>
+      </c>
+      <c r="G150" s="3">
+        <f t="shared" ref="G150:G213" si="17">SUM(E136:E149)</f>
+        <v>30886.829573806262</v>
+      </c>
+      <c r="H150" s="3">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="1">
+        <v>43953</v>
+      </c>
+      <c r="C151">
+        <v>122</v>
+      </c>
+      <c r="D151" s="2">
+        <f t="shared" si="14"/>
+        <v>150248.85701863645</v>
+      </c>
+      <c r="E151" s="2">
+        <f t="shared" si="15"/>
+        <v>5048.488809812864</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="16"/>
+        <v>4948.488809812864</v>
+      </c>
+      <c r="G151" s="3">
+        <f t="shared" si="17"/>
+        <v>34423.73883918584</v>
+      </c>
+      <c r="H151" s="3">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="1">
+        <v>43954</v>
+      </c>
+      <c r="C152">
+        <v>123</v>
+      </c>
+      <c r="D152" s="2">
+        <f t="shared" si="14"/>
+        <v>181544.36901119127</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" si="15"/>
+        <v>5626.6008107524176</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="16"/>
+        <v>5526.6008107524176</v>
+      </c>
+      <c r="G152" s="3">
+        <f t="shared" si="17"/>
+        <v>38365.666273284711</v>
+      </c>
+      <c r="H152" s="3">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="1">
+        <v>43955</v>
+      </c>
+      <c r="C153">
+        <v>124</v>
+      </c>
+      <c r="D153" s="2">
+        <f t="shared" si="14"/>
+        <v>219358.46018172055</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="15"/>
+        <v>6270.9135102021364</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="16"/>
+        <v>6170.9135102021364</v>
+      </c>
+      <c r="G153" s="3">
+        <f t="shared" si="17"/>
+        <v>42758.991272543266</v>
+      </c>
+      <c r="H153" s="3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="1">
+        <v>43956</v>
+      </c>
+      <c r="C154">
+        <v>125</v>
+      </c>
+      <c r="D154" s="2">
+        <f t="shared" si="14"/>
+        <v>265048.89309086284</v>
+      </c>
+      <c r="E154" s="2">
+        <f t="shared" si="15"/>
+        <v>6989.0076753422682</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="16"/>
+        <v>6889.0076753422682</v>
+      </c>
+      <c r="G154" s="3">
+        <f t="shared" si="17"/>
+        <v>47655.40422579756</v>
+      </c>
+      <c r="H154" s="3">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="1">
+        <v>43957</v>
+      </c>
+      <c r="C155">
+        <v>126</v>
+      </c>
+      <c r="D155" s="2">
+        <f t="shared" si="14"/>
+        <v>320256.24026761786</v>
+      </c>
+      <c r="E155" s="2">
+        <f t="shared" si="15"/>
+        <v>7789.3321613390563</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="16"/>
+        <v>7689.3321613390563</v>
+      </c>
+      <c r="G155" s="3">
+        <f t="shared" si="17"/>
+        <v>53112.514686062299</v>
+      </c>
+      <c r="H155" s="3">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="1">
+        <v>43958</v>
+      </c>
+      <c r="C156">
+        <v>127</v>
+      </c>
+      <c r="D156" s="2">
+        <f t="shared" si="14"/>
+        <v>386962.79103187739</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" si="15"/>
+        <v>8681.3033177416983</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="16"/>
+        <v>8581.3033177416983</v>
+      </c>
+      <c r="G156" s="3">
+        <f t="shared" si="17"/>
+        <v>59194.529185214822</v>
+      </c>
+      <c r="H156" s="3">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="1">
+        <v>43959</v>
+      </c>
+      <c r="C157">
+        <v>128</v>
+      </c>
+      <c r="D157" s="2">
+        <f t="shared" si="14"/>
+        <v>467563.72808864643</v>
+      </c>
+      <c r="E157" s="2">
+        <f t="shared" si="15"/>
+        <v>9675.415778093753</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="16"/>
+        <v>9575.415778093753</v>
+      </c>
+      <c r="G157" s="3">
+        <f t="shared" si="17"/>
+        <v>65973.006666520378</v>
+      </c>
+      <c r="H157" s="3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B158" s="1">
+        <v>43960</v>
+      </c>
+      <c r="C158">
+        <v>129</v>
+      </c>
+      <c r="D158" s="2">
+        <f t="shared" si="14"/>
+        <v>564953.12957918074</v>
+      </c>
+      <c r="E158" s="2">
+        <f t="shared" si="15"/>
+        <v>10783.365936272532</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="16"/>
+        <v>10683.365936272532</v>
+      </c>
+      <c r="G158" s="3">
+        <f t="shared" si="17"/>
+        <v>73527.700423164468</v>
+      </c>
+      <c r="H158" s="3">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B159" s="1">
+        <v>43961</v>
+      </c>
+      <c r="C159">
+        <v>130</v>
+      </c>
+      <c r="D159" s="2">
+        <f t="shared" si="14"/>
+        <v>682627.88460100046</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" si="15"/>
+        <v>12018.189562337589</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="16"/>
+        <v>11918.189562337589</v>
+      </c>
+      <c r="G159" s="3">
+        <f t="shared" si="17"/>
+        <v>81947.49644875883</v>
+      </c>
+      <c r="H159" s="3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B160" s="1">
+        <v>43962</v>
+      </c>
+      <c r="C160">
+        <v>131</v>
+      </c>
+      <c r="D160" s="2">
+        <f t="shared" si="14"/>
+        <v>824813.25341437582</v>
+      </c>
+      <c r="E160" s="2">
+        <f t="shared" si="15"/>
+        <v>13394.415177030274</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="16"/>
+        <v>13294.415177030274</v>
+      </c>
+      <c r="G160" s="3">
+        <f t="shared" si="17"/>
+        <v>91331.45924013824</v>
+      </c>
+      <c r="H160" s="3">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="1">
+        <v>43963</v>
+      </c>
+      <c r="C161">
+        <v>132</v>
+      </c>
+      <c r="D161" s="2">
+        <f t="shared" si="14"/>
+        <v>996614.5807325996</v>
+      </c>
+      <c r="E161" s="2">
+        <f t="shared" si="15"/>
+        <v>14928.234989477316</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="16"/>
+        <v>14828.234989477316</v>
+      </c>
+      <c r="G161" s="3">
+        <f t="shared" si="17"/>
+        <v>101789.99735701348</v>
+      </c>
+      <c r="H161" s="3">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="1">
+        <v>43964</v>
+      </c>
+      <c r="C162">
+        <v>133</v>
+      </c>
+      <c r="D162" s="2">
+        <f t="shared" si="14"/>
+        <v>1204200.6095527927</v>
+      </c>
+      <c r="E162" s="2">
+        <f t="shared" si="15"/>
+        <v>16637.695409294029</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="16"/>
+        <v>16537.695409294029</v>
+      </c>
+      <c r="G162" s="3">
+        <f t="shared" si="17"/>
+        <v>113446.16245206428</v>
+      </c>
+      <c r="H162" s="3">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C163">
+        <v>134</v>
+      </c>
+      <c r="D163" s="2">
+        <f t="shared" si="14"/>
+        <v>1455024.9776411755</v>
+      </c>
+      <c r="E163" s="2">
+        <f t="shared" si="15"/>
+        <v>18542.909374588788</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="16"/>
+        <v>18442.909374588788</v>
+      </c>
+      <c r="G163" s="3">
+        <f t="shared" si="17"/>
+        <v>126437.09705542495</v>
+      </c>
+      <c r="H163" s="3">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="1">
+        <v>43966</v>
+      </c>
+      <c r="C164">
+        <v>135</v>
+      </c>
+      <c r="D164" s="2">
+        <f t="shared" si="14"/>
+        <v>1758093.8497829989</v>
+      </c>
+      <c r="E164" s="2">
+        <f t="shared" si="15"/>
+        <v>20666.292994048923</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="16"/>
+        <v>20566.292994048923</v>
+      </c>
+      <c r="G164" s="3">
+        <f t="shared" si="17"/>
+        <v>140915.64814770917</v>
+      </c>
+      <c r="H164" s="3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="1">
+        <v>43967</v>
+      </c>
+      <c r="C165">
+        <v>136</v>
+      </c>
+      <c r="D165" s="2">
+        <f t="shared" si="14"/>
+        <v>2124289.2954701204</v>
+      </c>
+      <c r="E165" s="2">
+        <f t="shared" si="15"/>
+        <v>23032.829287359171</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="16"/>
+        <v>22932.829287359171</v>
+      </c>
+      <c r="G165" s="3">
+        <f t="shared" si="17"/>
+        <v>157052.16550633364</v>
+      </c>
+      <c r="H165" s="3">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B166" s="1">
+        <v>43968</v>
+      </c>
+      <c r="C166">
+        <v>137</v>
+      </c>
+      <c r="D166" s="2">
+        <f t="shared" si="14"/>
+        <v>2566760.0233093002</v>
+      </c>
+      <c r="E166" s="2">
+        <f t="shared" si="15"/>
+        <v>25670.362127034427</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="16"/>
+        <v>25570.362127034427</v>
+      </c>
+      <c r="G166" s="3">
+        <f t="shared" si="17"/>
+        <v>175036.50598387994</v>
+      </c>
+      <c r="H166" s="3">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="1">
+        <v>43969</v>
+      </c>
+      <c r="C167">
+        <v>138</v>
+      </c>
+      <c r="D167" s="2">
+        <f t="shared" si="14"/>
+        <v>3101393.5019621332</v>
+      </c>
+      <c r="E167" s="2">
+        <f t="shared" si="15"/>
+        <v>28609.923840087533</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="16"/>
+        <v>28509.923840087533</v>
+      </c>
+      <c r="G167" s="3">
+        <f t="shared" si="17"/>
+        <v>195080.26730016194</v>
+      </c>
+      <c r="H167" s="3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="1">
+        <v>43970</v>
+      </c>
+      <c r="C168">
+        <v>139</v>
+      </c>
+      <c r="D168" s="2">
+        <f t="shared" si="14"/>
+        <v>3747386.4197135707</v>
+      </c>
+      <c r="E168" s="2">
+        <f t="shared" si="15"/>
+        <v>31886.100323983581</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="16"/>
+        <v>31786.100323983581</v>
+      </c>
+      <c r="G168" s="3">
+        <f t="shared" si="17"/>
+        <v>217419.27763004735</v>
+      </c>
+      <c r="H168" s="3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="1">
+        <v>43971</v>
+      </c>
+      <c r="C169">
+        <v>140</v>
+      </c>
+      <c r="D169" s="2">
+        <f t="shared" si="14"/>
+        <v>4527933.9657380739</v>
+      </c>
+      <c r="E169" s="2">
+        <f t="shared" si="15"/>
+        <v>35537.437972712753</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="16"/>
+        <v>35437.437972712753</v>
+      </c>
+      <c r="G169" s="3">
+        <f t="shared" si="17"/>
+        <v>242316.37027868867</v>
+      </c>
+      <c r="H169" s="3">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C170">
+        <v>141</v>
+      </c>
+      <c r="D170" s="2">
+        <f t="shared" si="14"/>
+        <v>5471062.6825753283</v>
+      </c>
+      <c r="E170" s="2">
+        <f t="shared" si="15"/>
+        <v>39606.897200737068</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="16"/>
+        <v>39506.897200737068</v>
+      </c>
+      <c r="G170" s="3">
+        <f t="shared" si="17"/>
+        <v>270064.47609006235</v>
+      </c>
+      <c r="H170" s="3">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C171">
+        <v>142</v>
+      </c>
+      <c r="D171" s="2">
+        <f t="shared" si="14"/>
+        <v>6610636.7944324175</v>
+      </c>
+      <c r="E171" s="2">
+        <f t="shared" si="15"/>
+        <v>44142.357900822099</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="16"/>
+        <v>44042.357900822099</v>
+      </c>
+      <c r="G171" s="3">
+        <f t="shared" si="17"/>
+        <v>300990.06997305772</v>
+      </c>
+      <c r="H171" s="3">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C172">
+        <v>143</v>
+      </c>
+      <c r="D172" s="2">
+        <f t="shared" si="14"/>
+        <v>7987574.1447972227</v>
+      </c>
+      <c r="E172" s="2">
+        <f t="shared" si="15"/>
+        <v>49197.182782801057</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="16"/>
+        <v>49097.182782801057</v>
+      </c>
+      <c r="G172" s="3">
+        <f t="shared" si="17"/>
+        <v>335457.01209578605</v>
+      </c>
+      <c r="H172" s="3">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C173">
+        <v>144</v>
+      </c>
+      <c r="D173" s="2">
+        <f t="shared" si="14"/>
+        <v>9651315.4031345062</v>
+      </c>
+      <c r="E173" s="2">
+        <f t="shared" si="15"/>
+        <v>54830.845221325617</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="16"/>
+        <v>54730.845221325617</v>
+      </c>
+      <c r="G173" s="3">
+        <f t="shared" si="17"/>
+        <v>373870.82894231455</v>
+      </c>
+      <c r="H173" s="3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="1">
+        <v>43976</v>
+      </c>
+      <c r="C174">
+        <v>145</v>
+      </c>
+      <c r="D174" s="2">
+        <f t="shared" si="14"/>
+        <v>11661599.29438073</v>
+      </c>
+      <c r="E174" s="2">
+        <f t="shared" si="15"/>
+        <v>61109.628999650522</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="16"/>
+        <v>61009.628999650522</v>
+      </c>
+      <c r="G174" s="3">
+        <f t="shared" si="17"/>
+        <v>416683.4846013026</v>
+      </c>
+      <c r="H174" s="3">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="1">
+        <v>43977</v>
+      </c>
+      <c r="C175">
+        <v>146</v>
+      </c>
+      <c r="D175" s="2">
+        <f t="shared" si="14"/>
+        <v>14090607.593088714</v>
+      </c>
+      <c r="E175" s="2">
+        <f t="shared" si="15"/>
+        <v>68107.408182401967</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="16"/>
+        <v>68007.408182401967</v>
+      </c>
+      <c r="G175" s="3">
+        <f t="shared" si="17"/>
+        <v>464398.69842392288</v>
+      </c>
+      <c r="H175" s="3">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="1">
+        <v>43978</v>
+      </c>
+      <c r="C176">
+        <v>147</v>
+      </c>
+      <c r="D176" s="2">
+        <f t="shared" si="14"/>
+        <v>17025556.900937356</v>
+      </c>
+      <c r="E176" s="2">
+        <f t="shared" si="15"/>
+        <v>75906.516293051565</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="16"/>
+        <v>75806.516293051565</v>
+      </c>
+      <c r="G176" s="3">
+        <f t="shared" si="17"/>
+        <v>517577.87161684752</v>
+      </c>
+      <c r="H176" s="3">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B177" s="1">
+        <v>43979</v>
+      </c>
+      <c r="C177">
+        <v>148</v>
+      </c>
+      <c r="D177" s="2">
+        <f t="shared" si="14"/>
+        <v>20571830.268641669</v>
+      </c>
+      <c r="E177" s="2">
+        <f t="shared" si="15"/>
+        <v>84598.71502254701</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="16"/>
+        <v>84498.71502254701</v>
+      </c>
+      <c r="G177" s="3">
+        <f t="shared" si="17"/>
+        <v>576846.69250060513</v>
+      </c>
+      <c r="H177" s="3">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B178" s="1">
+        <v>43980</v>
+      </c>
+      <c r="C178">
+        <v>149</v>
+      </c>
+      <c r="D178" s="2">
+        <f t="shared" si="14"/>
+        <v>24856761.107092012</v>
+      </c>
+      <c r="E178" s="2">
+        <f t="shared" si="15"/>
+        <v>94286.273866599004</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="16"/>
+        <v>94186.273866599004</v>
+      </c>
+      <c r="G178" s="3">
+        <f t="shared" si="17"/>
+        <v>642902.49814856332</v>
+      </c>
+      <c r="H178" s="3">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B179" s="1">
+        <v>43981</v>
+      </c>
+      <c r="C179">
+        <v>150</v>
+      </c>
+      <c r="D179" s="2">
+        <f t="shared" si="14"/>
+        <v>30034205.253815677</v>
+      </c>
+      <c r="E179" s="2">
+        <f t="shared" si="15"/>
+        <v>105083.17339427663</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="16"/>
+        <v>104983.17339427663</v>
+      </c>
+      <c r="G179" s="3">
+        <f t="shared" si="17"/>
+        <v>716522.47902111337</v>
+      </c>
+      <c r="H179" s="3">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B180" s="1">
+        <v>43982</v>
+      </c>
+      <c r="C180">
+        <v>151</v>
+      </c>
+      <c r="D180" s="2">
+        <f t="shared" si="14"/>
+        <v>36290065.360565536</v>
+      </c>
+      <c r="E180" s="2">
+        <f t="shared" si="15"/>
+        <v>117116.44630516492</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="16"/>
+        <v>117016.44630516492</v>
+      </c>
+      <c r="G180" s="3">
+        <f t="shared" si="17"/>
+        <v>798572.82312803087</v>
+      </c>
+      <c r="H180" s="3">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B181" s="1">
+        <v>43983</v>
+      </c>
+      <c r="C181">
+        <v>152</v>
+      </c>
+      <c r="D181" s="2">
+        <f t="shared" si="14"/>
+        <v>43848965.962127477</v>
+      </c>
+      <c r="E181" s="2">
+        <f t="shared" si="15"/>
+        <v>130527.67205351297</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="16"/>
+        <v>130427.67205351297</v>
+      </c>
+      <c r="G181" s="3">
+        <f t="shared" si="17"/>
+        <v>890018.90730616136</v>
+      </c>
+      <c r="H181" s="3">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B182" s="1">
+        <v>43984</v>
+      </c>
+      <c r="C182">
+        <v>153</v>
+      </c>
+      <c r="D182" s="2">
+        <f t="shared" si="14"/>
+        <v>52982318.903099678</v>
+      </c>
+      <c r="E182" s="2">
+        <f t="shared" si="15"/>
+        <v>145474.64262462055</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="16"/>
+        <v>145374.64262462055</v>
+      </c>
+      <c r="G182" s="3">
+        <f t="shared" si="17"/>
+        <v>991936.65551958687</v>
+      </c>
+      <c r="H182" s="3">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B183" s="1">
+        <v>43985</v>
+      </c>
+      <c r="C183">
+        <v>154</v>
+      </c>
+      <c r="D183" s="2">
+        <f t="shared" si="14"/>
+        <v>64018068.721946351</v>
+      </c>
+      <c r="E183" s="2">
+        <f t="shared" si="15"/>
+        <v>162133.21906242872</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="16"/>
+        <v>162033.21906242872</v>
+      </c>
+      <c r="G183" s="3">
+        <f t="shared" si="17"/>
+        <v>1105525.1978202239</v>
+      </c>
+      <c r="H183" s="3">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B184" s="1">
+        <v>43986</v>
+      </c>
+      <c r="C184">
+        <v>155</v>
+      </c>
+      <c r="D184" s="2">
+        <f t="shared" si="14"/>
+        <v>77352467.912612706</v>
+      </c>
+      <c r="E184" s="2">
+        <f t="shared" si="15"/>
+        <v>180699.40059159524</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="16"/>
+        <v>180599.40059159524</v>
+      </c>
+      <c r="G184" s="3">
+        <f t="shared" si="17"/>
+        <v>1232120.9789099398</v>
+      </c>
+      <c r="H184" s="3">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B185" s="1">
+        <v>43987</v>
+      </c>
+      <c r="C185">
+        <v>156</v>
+      </c>
+      <c r="D185" s="2">
+        <f t="shared" si="14"/>
+        <v>93464304.869299769</v>
+      </c>
+      <c r="E185" s="2">
+        <f t="shared" si="15"/>
+        <v>201391.63067865319</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="16"/>
+        <v>201291.63067865319</v>
+      </c>
+      <c r="G185" s="3">
+        <f t="shared" si="17"/>
+        <v>1373213.4823007982</v>
+      </c>
+      <c r="H185" s="3">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B186" s="1">
+        <v>43988</v>
+      </c>
+      <c r="C186">
+        <v>157</v>
+      </c>
+      <c r="D186" s="2">
+        <f t="shared" si="14"/>
+        <v>112932095.38666917</v>
+      </c>
+      <c r="E186" s="2">
+        <f t="shared" si="15"/>
+        <v>224453.36716459255</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="16"/>
+        <v>224353.36716459255</v>
+      </c>
+      <c r="G186" s="3">
+        <f t="shared" si="17"/>
+        <v>1530462.7550786294</v>
+      </c>
+      <c r="H186" s="3">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B187" s="1">
+        <v>43989</v>
+      </c>
+      <c r="C187">
+        <v>158</v>
+      </c>
+      <c r="D187" s="2">
+        <f t="shared" si="14"/>
+        <v>136454854.99794152</v>
+      </c>
+      <c r="E187" s="2">
+        <f t="shared" si="15"/>
+        <v>250155.94670818327</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="16"/>
+        <v>250055.94670818327</v>
+      </c>
+      <c r="G187" s="3">
+        <f t="shared" si="17"/>
+        <v>1705718.9394604207</v>
+      </c>
+      <c r="H187" s="3">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B188" s="1">
+        <v>43990</v>
+      </c>
+      <c r="C188">
+        <v>159</v>
+      </c>
+      <c r="D188" s="2">
+        <f t="shared" si="14"/>
+        <v>164877198.00784987</v>
+      </c>
+      <c r="E188" s="2">
+        <f t="shared" si="15"/>
+        <v>278801.77724212466</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="16"/>
+        <v>278701.77724212466</v>
+      </c>
+      <c r="G188" s="3">
+        <f t="shared" si="17"/>
+        <v>1901044.0409472783</v>
+      </c>
+      <c r="H188" s="3">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B189" s="1">
+        <v>43991</v>
+      </c>
+      <c r="C189">
+        <v>160</v>
+      </c>
+      <c r="D189" s="2">
+        <f t="shared" si="14"/>
+        <v>199219664.43282598</v>
+      </c>
+      <c r="E189" s="2">
+        <f t="shared" si="15"/>
+        <v>310727.89600337885</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="16"/>
+        <v>310627.89600337885</v>
+      </c>
+      <c r="G189" s="3">
+        <f t="shared" si="17"/>
+        <v>2118736.1891897526</v>
+      </c>
+      <c r="H189" s="3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B190" s="1">
+        <v>43992</v>
+      </c>
+      <c r="C190">
+        <v>161</v>
+      </c>
+      <c r="D190" s="2">
+        <f t="shared" si="14"/>
+        <v>240715363.77539638</v>
+      </c>
+      <c r="E190" s="2">
+        <f t="shared" si="15"/>
+        <v>346309.93500029395</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="16"/>
+        <v>346209.93500029395</v>
+      </c>
+      <c r="G190" s="3">
+        <f t="shared" si="17"/>
+        <v>2361356.6770107294</v>
+      </c>
+      <c r="H190" s="3">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B191" s="1">
+        <v>43993</v>
+      </c>
+      <c r="C191">
+        <v>162</v>
+      </c>
+      <c r="D191" s="2">
+        <f t="shared" si="14"/>
+        <v>290854251.37366027</v>
+      </c>
+      <c r="E191" s="2">
+        <f t="shared" si="15"/>
+        <v>385966.54057286162</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="16"/>
+        <v>385866.54057286162</v>
+      </c>
+      <c r="G191" s="3">
+        <f t="shared" si="17"/>
+        <v>2631760.0957179717</v>
+      </c>
+      <c r="H191" s="3">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B192" s="1">
+        <v>43994</v>
+      </c>
+      <c r="C192">
+        <v>163</v>
+      </c>
+      <c r="D192" s="2">
+        <f t="shared" si="14"/>
+        <v>351436627.12391847</v>
+      </c>
+      <c r="E192" s="2">
+        <f t="shared" si="15"/>
+        <v>430164.29904517665</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="16"/>
+        <v>430064.29904517665</v>
+      </c>
+      <c r="G192" s="3">
+        <f t="shared" si="17"/>
+        <v>2933127.9212682862</v>
+      </c>
+      <c r="H192" s="3">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B193" s="1">
+        <v>43995</v>
+      </c>
+      <c r="C193">
+        <v>164</v>
+      </c>
+      <c r="D193" s="2">
+        <f t="shared" si="14"/>
+        <v>424637777.5154686</v>
+      </c>
+      <c r="E193" s="2">
+        <f t="shared" si="15"/>
+        <v>479423.22642368264</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="16"/>
+        <v>479323.22642368264</v>
+      </c>
+      <c r="G193" s="3">
+        <f t="shared" si="17"/>
+        <v>3269005.9464468639</v>
+      </c>
+      <c r="H193" s="3">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B194" s="1">
+        <v>43996</v>
+      </c>
+      <c r="C194">
+        <v>165</v>
+      </c>
+      <c r="D194" s="2">
+        <f t="shared" si="14"/>
+        <v>513086082.03121394</v>
+      </c>
+      <c r="E194" s="2">
+        <f t="shared" si="15"/>
+        <v>534322.88673113333</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="16"/>
+        <v>534222.88673113333</v>
+      </c>
+      <c r="G194" s="3">
+        <f t="shared" si="17"/>
+        <v>3643345.9994762698</v>
+      </c>
+      <c r="H194" s="3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B195" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C195">
+        <v>166</v>
+      </c>
+      <c r="D195" s="2">
+        <f t="shared" si="14"/>
+        <v>619957388.42277575</v>
+      </c>
+      <c r="E195" s="2">
+        <f t="shared" si="15"/>
+        <v>595509.21096255886</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="16"/>
+        <v>595409.21096255886</v>
+      </c>
+      <c r="G195" s="3">
+        <f t="shared" si="17"/>
+        <v>4060552.4399022385</v>
+      </c>
+      <c r="H195" s="3">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B196" s="1">
+        <v>43998</v>
+      </c>
+      <c r="C196">
+        <v>167</v>
+      </c>
+      <c r="D196" s="2">
+        <f t="shared" si="14"/>
+        <v>749089045.52317941</v>
+      </c>
+      <c r="E196" s="2">
+        <f t="shared" si="15"/>
+        <v>663702.09689276794</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="16"/>
+        <v>663602.09689276794</v>
+      </c>
+      <c r="G196" s="3">
+        <f t="shared" si="17"/>
+        <v>4525533.9788112845</v>
+      </c>
+      <c r="H196" s="3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B197" s="1">
+        <v>43999</v>
+      </c>
+      <c r="C197">
+        <v>168</v>
+      </c>
+      <c r="D197" s="2">
+        <f t="shared" si="14"/>
+        <v>905117688.08885336</v>
+      </c>
+      <c r="E197" s="2">
+        <f t="shared" si="15"/>
+        <v>739703.87915217609</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="16"/>
+        <v>739603.87915217609</v>
+      </c>
+      <c r="G197" s="3">
+        <f t="shared" si="17"/>
+        <v>5043761.4330794308</v>
+      </c>
+      <c r="H197" s="3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B198" s="1">
+        <v>44000</v>
+      </c>
+      <c r="C198">
+        <v>169</v>
+      </c>
+      <c r="D198" s="2">
+        <f t="shared" si="14"/>
+        <v>1093645721.0092263</v>
+      </c>
+      <c r="E198" s="2">
+        <f t="shared" si="15"/>
+        <v>824408.76922704699</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="16"/>
+        <v>824308.76922704699</v>
+      </c>
+      <c r="G198" s="3">
+        <f t="shared" si="17"/>
+        <v>5621332.0931691779</v>
+      </c>
+      <c r="H198" s="3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B199" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C199">
+        <v>170</v>
+      </c>
+      <c r="D199" s="2">
+        <f t="shared" si="14"/>
+        <v>1321442480.7090724</v>
+      </c>
+      <c r="E199" s="2">
+        <f t="shared" si="15"/>
+        <v>918813.37645200326</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="16"/>
+        <v>918713.37645200326</v>
+      </c>
+      <c r="G199" s="3">
+        <f t="shared" si="17"/>
+        <v>6265041.4618046302</v>
+      </c>
+      <c r="H199" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B200" s="1">
+        <v>44002</v>
+      </c>
+      <c r="C200">
+        <v>171</v>
+      </c>
+      <c r="D200" s="2">
+        <f t="shared" si="14"/>
+        <v>1596687296.6970713</v>
+      </c>
+      <c r="E200" s="2">
+        <f t="shared" si="15"/>
+        <v>1024028.4337812846</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="16"/>
+        <v>1023928.4337812846</v>
+      </c>
+      <c r="G200" s="3">
+        <f t="shared" si="17"/>
+        <v>6982463.2075779801</v>
+      </c>
+      <c r="H200" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B201" s="1">
+        <v>44003</v>
+      </c>
+      <c r="C201">
+        <v>172</v>
+      </c>
+      <c r="D201" s="2">
+        <f t="shared" si="14"/>
+        <v>1929263180.6916137</v>
+      </c>
+      <c r="E201" s="2">
+        <f t="shared" si="15"/>
+        <v>1141291.8663002604</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="16"/>
+        <v>1141191.8663002604</v>
+      </c>
+      <c r="G201" s="3">
+        <f t="shared" si="17"/>
+        <v>7782038.2741946736</v>
+      </c>
+      <c r="H201" s="3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B202" s="1">
+        <v>44004</v>
+      </c>
+      <c r="C202">
+        <v>173</v>
+      </c>
+      <c r="D202" s="2">
+        <f t="shared" si="14"/>
+        <v>2331111688.6016636</v>
+      </c>
+      <c r="E202" s="2">
+        <f t="shared" si="15"/>
+        <v>1271983.3562368995</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="16"/>
+        <v>1271883.3562368995</v>
+      </c>
+      <c r="G202" s="3">
+        <f t="shared" si="17"/>
+        <v>8673174.1937867496</v>
+      </c>
+      <c r="H202" s="3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B203" s="1">
+        <v>44005</v>
+      </c>
+      <c r="C203">
+        <v>174</v>
+      </c>
+      <c r="D203" s="2">
+        <f t="shared" si="14"/>
+        <v>2816661697.1289725</v>
+      </c>
+      <c r="E203" s="2">
+        <f t="shared" si="15"/>
+        <v>1417640.5758402406</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="16"/>
+        <v>1417540.5758402406</v>
+      </c>
+      <c r="G203" s="3">
+        <f t="shared" si="17"/>
+        <v>9666355.7727815248</v>
+      </c>
+      <c r="H203" s="3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B204" s="1">
+        <v>44006</v>
+      </c>
+      <c r="C204">
+        <v>175</v>
+      </c>
+      <c r="D204" s="2">
+        <f t="shared" si="14"/>
+        <v>3403347490.7555752</v>
+      </c>
+      <c r="E204" s="2">
+        <f t="shared" si="15"/>
+        <v>1579977.279116502</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="16"/>
+        <v>1579877.279116502</v>
+      </c>
+      <c r="G204" s="3">
+        <f t="shared" si="17"/>
+        <v>10773268.452618387</v>
+      </c>
+      <c r="H204" s="3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B205" s="1">
+        <v>44007</v>
+      </c>
+      <c r="C205">
+        <v>176</v>
+      </c>
+      <c r="D205" s="2">
+        <f t="shared" si="14"/>
+        <v>4112234761.6821179</v>
+      </c>
+      <c r="E205" s="2">
+        <f t="shared" si="15"/>
+        <v>1760903.4652840674</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="16"/>
+        <v>1760803.4652840674</v>
+      </c>
+      <c r="G205" s="3">
+        <f t="shared" si="17"/>
+        <v>12006935.796734596</v>
+      </c>
+      <c r="H205" s="3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B206" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C206">
+        <v>177</v>
+      </c>
+      <c r="D206" s="2">
+        <f t="shared" si="14"/>
+        <v>4968777000.0331182</v>
+      </c>
+      <c r="E206" s="2">
+        <f t="shared" si="15"/>
+        <v>1962547.8511838752</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="16"/>
+        <v>1962447.8511838752</v>
+      </c>
+      <c r="G206" s="3">
+        <f t="shared" si="17"/>
+        <v>13381872.721445803</v>
+      </c>
+      <c r="H206" s="3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B207" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C207">
+        <v>178</v>
+      </c>
+      <c r="D207" s="2">
+        <f t="shared" si="14"/>
+        <v>6003729433.4721136</v>
+      </c>
+      <c r="E207" s="2">
+        <f t="shared" si="15"/>
+        <v>2187282.9170479919</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="16"/>
+        <v>2187182.9170479919</v>
+      </c>
+      <c r="G207" s="3">
+        <f t="shared" si="17"/>
+        <v>14914256.2735845</v>
+      </c>
+      <c r="H207" s="3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B208" s="1">
+        <v>44010</v>
+      </c>
+      <c r="C208">
+        <v>179</v>
+      </c>
+      <c r="D208" s="2">
+        <f t="shared" si="14"/>
+        <v>7254253332.3792276</v>
+      </c>
+      <c r="E208" s="2">
+        <f t="shared" si="15"/>
+        <v>2437752.8203065055</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="16"/>
+        <v>2437652.8203065055</v>
+      </c>
+      <c r="G208" s="3">
+        <f t="shared" si="17"/>
+        <v>16622115.96420881</v>
+      </c>
+      <c r="H208" s="3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B209" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C209">
+        <v>180</v>
+      </c>
+      <c r="D209" s="2">
+        <f t="shared" si="14"/>
+        <v>8765250332.059185</v>
+      </c>
+      <c r="E209" s="2">
+        <f t="shared" si="15"/>
+        <v>2716904.5058572753</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="16"/>
+        <v>2716804.5058572753</v>
+      </c>
+      <c r="G209" s="3">
+        <f t="shared" si="17"/>
+        <v>18525545.897784181</v>
+      </c>
+      <c r="H209" s="3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B210" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C210">
+        <v>181</v>
+      </c>
+      <c r="D210" s="2">
+        <f t="shared" si="14"/>
+        <v>10590974682.499172</v>
+      </c>
+      <c r="E210" s="2">
+        <f t="shared" si="15"/>
+        <v>3028022.3788314373</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="16"/>
+        <v>3027922.3788314373</v>
+      </c>
+      <c r="G210" s="3">
+        <f t="shared" si="17"/>
+        <v>20646941.192678895</v>
+      </c>
+      <c r="H210" s="3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B211" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C211">
+        <v>182</v>
+      </c>
+      <c r="D211" s="2">
+        <f t="shared" si="14"/>
+        <v>12796981315.533871</v>
+      </c>
+      <c r="E211" s="2">
+        <f t="shared" si="15"/>
+        <v>3374766.9478029348</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="16"/>
+        <v>3374666.9478029348</v>
+      </c>
+      <c r="G211" s="3">
+        <f t="shared" si="17"/>
+        <v>23011261.474617567</v>
+      </c>
+      <c r="H211" s="3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B212" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C212">
+        <v>183</v>
+      </c>
+      <c r="D212" s="2">
+        <f t="shared" si="14"/>
+        <v>15462479677.222698</v>
+      </c>
+      <c r="E212" s="2">
+        <f t="shared" si="15"/>
+        <v>3761217.8931049961</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="16"/>
+        <v>3761117.8931049961</v>
+      </c>
+      <c r="G212" s="3">
+        <f t="shared" si="17"/>
+        <v>25646324.543268327</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B213" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C213">
+        <v>184</v>
+      </c>
+      <c r="D213" s="2">
+        <f t="shared" si="14"/>
+        <v>18683177842.754372</v>
+      </c>
+      <c r="E213" s="2">
+        <f t="shared" si="15"/>
+        <v>4191922.0669809766</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="16"/>
+        <v>4191822.0669809766</v>
+      </c>
+      <c r="G213" s="3">
+        <f t="shared" si="17"/>
+        <v>28583133.667146277</v>
+      </c>
+      <c r="H213" s="3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B214" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C214">
+        <v>185</v>
+      </c>
+      <c r="D214" s="2">
+        <f t="shared" ref="D214:D277" si="18">IF(C214&lt;tzero_trial,0,EXP(lambda1*(C214-tzero_trial)))</f>
+        <v>22574719035.406662</v>
+      </c>
+      <c r="E214" s="2">
+        <f t="shared" ref="E214:E277" si="19">IF(C214&lt;=tprime,D214,INDEX($D$30:$D$149,tprime)*EXP(lambda2*(C214-tprime)))</f>
+        <v>4671946.9903233079</v>
+      </c>
+      <c r="F214">
+        <f t="shared" ref="F214:F277" si="20">ABS(E214-admrate_today)</f>
+        <v>4671846.9903233079</v>
+      </c>
+      <c r="G214" s="3">
+        <f t="shared" ref="G214:G277" si="21">SUM(E200:E213)</f>
+        <v>31856242.357675251</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B215" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C215">
+        <v>186</v>
+      </c>
+      <c r="D215" s="2">
+        <f t="shared" si="18"/>
+        <v>27276833942.101105</v>
+      </c>
+      <c r="E215" s="2">
+        <f t="shared" si="19"/>
+        <v>5206940.47542514</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="20"/>
+        <v>5206840.47542514</v>
+      </c>
+      <c r="G215" s="3">
+        <f t="shared" si="21"/>
+        <v>35504160.914217271</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B216" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C216">
+        <v>187</v>
+      </c>
+      <c r="D216" s="2">
+        <f t="shared" si="18"/>
+        <v>32958357919.671589</v>
+      </c>
+      <c r="E216" s="2">
+        <f t="shared" si="19"/>
+        <v>5803197.0762460018</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="20"/>
+        <v>5803097.0762460018</v>
+      </c>
+      <c r="G216" s="3">
+        <f t="shared" si="21"/>
+        <v>39569809.523342147</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B217" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C217">
+        <v>188</v>
+      </c>
+      <c r="D217" s="2">
+        <f t="shared" si="18"/>
+        <v>39823293240.956917</v>
+      </c>
+      <c r="E217" s="2">
+        <f t="shared" si="19"/>
+        <v>6467732.1480231546</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="20"/>
+        <v>6467632.1480231546</v>
+      </c>
+      <c r="G217" s="3">
+        <f t="shared" si="21"/>
+        <v>44101023.243351258</v>
+      </c>
+      <c r="H217" s="3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B218" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C218">
+        <v>189</v>
+      </c>
+      <c r="D218" s="2">
+        <f t="shared" si="18"/>
+        <v>48118134053.295479</v>
+      </c>
+      <c r="E218" s="2">
+        <f t="shared" si="19"/>
+        <v>7208364.3875889992</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="20"/>
+        <v>7208264.3875889992</v>
+      </c>
+      <c r="G218" s="3">
+        <f t="shared" si="21"/>
+        <v>49151114.815534174</v>
+      </c>
+      <c r="H218" s="3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B219" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C219">
+        <v>190</v>
+      </c>
+      <c r="D219" s="2">
+        <f t="shared" si="18"/>
+        <v>58140717061.281151</v>
+      </c>
+      <c r="E219" s="2">
+        <f t="shared" si="19"/>
+        <v>8033807.8255363181</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="20"/>
+        <v>8033707.8255363181</v>
+      </c>
+      <c r="G219" s="3">
+        <f t="shared" si="21"/>
+        <v>54779501.924006663</v>
+      </c>
+      <c r="H219" s="3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B220" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C220">
+        <v>191</v>
+      </c>
+      <c r="D220" s="2">
+        <f t="shared" si="18"/>
+        <v>70250915728.69165</v>
+      </c>
+      <c r="E220" s="2">
+        <f t="shared" si="19"/>
+        <v>8953774.3525804542</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="20"/>
+        <v>8953674.3525804542</v>
+      </c>
+      <c r="G220" s="3">
+        <f t="shared" si="21"/>
+        <v>61052406.284258917</v>
+      </c>
+      <c r="H220" s="3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B221" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C221">
+        <v>192</v>
+      </c>
+      <c r="D221" s="2">
+        <f t="shared" si="18"/>
+        <v>84883561988.373688</v>
+      </c>
+      <c r="E221" s="2">
+        <f t="shared" si="19"/>
+        <v>9979087.9864089135</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="20"/>
+        <v>9978987.9864089135</v>
+      </c>
+      <c r="G221" s="3">
+        <f t="shared" si="21"/>
+        <v>68043632.785655499</v>
+      </c>
+      <c r="H221" s="3">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B222" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C222">
+        <v>193</v>
+      </c>
+      <c r="D222" s="2">
+        <f t="shared" si="18"/>
+        <v>102564059430.35016</v>
+      </c>
+      <c r="E222" s="2">
+        <f t="shared" si="19"/>
+        <v>11121812.223444227</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="20"/>
+        <v>11121712.223444227</v>
+      </c>
+      <c r="G222" s="3">
+        <f t="shared" si="21"/>
+        <v>75835437.855016425</v>
+      </c>
+      <c r="H222" s="3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B223" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C223">
+        <v>194</v>
+      </c>
+      <c r="D223" s="2">
+        <f t="shared" si="18"/>
+        <v>123927248579.33292</v>
+      </c>
+      <c r="E223" s="2">
+        <f t="shared" si="19"/>
+        <v>12395391.973897861</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="20"/>
+        <v>12395291.973897861</v>
+      </c>
+      <c r="G223" s="3">
+        <f t="shared" si="21"/>
+        <v>84519497.258154139</v>
+      </c>
+      <c r="H223" s="3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B224" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C224">
+        <v>195</v>
+      </c>
+      <c r="D224" s="2">
+        <f t="shared" si="18"/>
+        <v>149740201643.18042</v>
+      </c>
+      <c r="E224" s="2">
+        <f t="shared" si="19"/>
+        <v>13814811.750075556</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="20"/>
+        <v>13814711.750075556</v>
+      </c>
+      <c r="G224" s="3">
+        <f t="shared" si="21"/>
+        <v>94197984.726194724</v>
+      </c>
+      <c r="H224" s="3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="225" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B225" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C225">
+        <v>196</v>
+      </c>
+      <c r="D225" s="2">
+        <f t="shared" si="18"/>
+        <v>180929765206.45276</v>
+      </c>
+      <c r="E225" s="2">
+        <f t="shared" si="19"/>
+        <v>15396771.969124874</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="20"/>
+        <v>15396671.969124874</v>
+      </c>
+      <c r="G225" s="3">
+        <f t="shared" si="21"/>
+        <v>104984774.09743884</v>
+      </c>
+      <c r="H225" s="3">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="226" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B226" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C226">
+        <v>197</v>
+      </c>
+      <c r="D226" s="2">
+        <f t="shared" si="18"/>
+        <v>218615839824.15369</v>
+      </c>
+      <c r="E226" s="2">
+        <f t="shared" si="19"/>
+        <v>17159885.444543421</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="20"/>
+        <v>17159785.444543421</v>
+      </c>
+      <c r="G226" s="3">
+        <f t="shared" si="21"/>
+        <v>117006779.11876078</v>
+      </c>
+      <c r="H226" s="3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="227" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C227">
+        <v>198</v>
+      </c>
+      <c r="D227" s="2">
+        <f t="shared" si="18"/>
+        <v>264151591461.38943</v>
+      </c>
+      <c r="E227" s="2">
+        <f t="shared" si="19"/>
+        <v>19124896.378301688</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="20"/>
+        <v>19124796.378301688</v>
+      </c>
+      <c r="G227" s="3">
+        <f t="shared" si="21"/>
+        <v>130405446.6701992</v>
+      </c>
+      <c r="H227" s="3">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="228" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C228">
+        <v>199</v>
+      </c>
+      <c r="D228" s="2">
+        <f t="shared" si="18"/>
+        <v>319172038621.31061</v>
+      </c>
+      <c r="E228" s="2">
+        <f t="shared" si="19"/>
+        <v>21314924.430167694</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="20"/>
+        <v>21314824.430167694</v>
+      </c>
+      <c r="G228" s="3">
+        <f t="shared" si="21"/>
+        <v>145338420.98151991</v>
+      </c>
+      <c r="H228" s="3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="229" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B229" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C229">
+        <v>200</v>
+      </c>
+      <c r="D229" s="2">
+        <f t="shared" si="18"/>
+        <v>385652759743.35107</v>
+      </c>
+      <c r="E229" s="2">
+        <f t="shared" si="19"/>
+        <v>23755736.735871579</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="20"/>
+        <v>23755636.735871579</v>
+      </c>
+      <c r="G229" s="3">
+        <f t="shared" si="21"/>
+        <v>161981398.42136431</v>
+      </c>
+      <c r="H229" s="3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="230" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B230" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C230">
+        <v>201</v>
+      </c>
+      <c r="D230" s="2">
+        <f t="shared" si="18"/>
+        <v>465980828834.83673</v>
+      </c>
+      <c r="E230" s="2">
+        <f t="shared" si="19"/>
+        <v>26476051.074584961</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="20"/>
+        <v>26475951.074584961</v>
+      </c>
+      <c r="G230" s="3">
+        <f t="shared" si="21"/>
+        <v>180530194.68181077</v>
+      </c>
+      <c r="H230" s="3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="231" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B231" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C231">
+        <v>202</v>
+      </c>
+      <c r="D231" s="2">
+        <f t="shared" si="18"/>
+        <v>563040526369.12524</v>
+      </c>
+      <c r="E231" s="2">
+        <f t="shared" si="19"/>
+        <v>29507873.752681334</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="20"/>
+        <v>29507773.752681334</v>
+      </c>
+      <c r="G231" s="3">
+        <f t="shared" si="21"/>
+        <v>201203048.6801497</v>
+      </c>
+      <c r="H231" s="3">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="232" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B232" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C232">
+        <v>203</v>
+      </c>
+      <c r="D232" s="2">
+        <f t="shared" si="18"/>
+        <v>680316903008.00745</v>
+      </c>
+      <c r="E232" s="2">
+        <f t="shared" si="19"/>
+        <v>32886876.179204818</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="20"/>
+        <v>32886776.179204818</v>
+      </c>
+      <c r="G232" s="3">
+        <f t="shared" si="21"/>
+        <v>224243190.28480792</v>
+      </c>
+      <c r="H232" s="3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="233" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B233" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C233">
+        <v>204</v>
+      </c>
+      <c r="D233" s="2">
+        <f t="shared" si="18"/>
+        <v>822020914734.25818</v>
+      </c>
+      <c r="E233" s="2">
+        <f t="shared" si="19"/>
+        <v>36652814.563708477</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="20"/>
+        <v>36652714.563708477</v>
+      </c>
+      <c r="G233" s="3">
+        <f t="shared" si="21"/>
+        <v>249921702.07642373</v>
+      </c>
+      <c r="H233" s="3">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="234" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C234">
+        <v>205</v>
+      </c>
+      <c r="D234" s="2">
+        <f t="shared" si="18"/>
+        <v>993240622528.81531</v>
+      </c>
+      <c r="E234" s="2">
+        <f t="shared" si="19"/>
+        <v>40849997.674485289</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="20"/>
+        <v>40849897.674485289</v>
+      </c>
+      <c r="G234" s="3">
+        <f t="shared" si="21"/>
+        <v>278540708.81459588</v>
+      </c>
+      <c r="H234" s="3">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="235" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C235">
+        <v>206</v>
+      </c>
+      <c r="D235" s="2">
+        <f t="shared" si="18"/>
+        <v>1200123885607.3975</v>
+      </c>
+      <c r="E235" s="2">
+        <f t="shared" si="19"/>
+        <v>45527808.160678715</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="20"/>
+        <v>45527708.160678715</v>
+      </c>
+      <c r="G235" s="3">
+        <f t="shared" si="21"/>
+        <v>310436932.13650066</v>
+      </c>
+      <c r="H235" s="3">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="236" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C236">
+        <v>207</v>
+      </c>
+      <c r="D236" s="2">
+        <f t="shared" si="18"/>
+        <v>1450099108047.3176</v>
+      </c>
+      <c r="E236" s="2">
+        <f t="shared" si="19"/>
+        <v>50741283.571974754</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="20"/>
+        <v>50741183.571974754</v>
+      </c>
+      <c r="G236" s="3">
+        <f t="shared" si="21"/>
+        <v>345985652.31077051</v>
+      </c>
+      <c r="H236" s="3">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="237" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B237" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C237">
+        <v>208</v>
+      </c>
+      <c r="D237" s="2">
+        <f t="shared" si="18"/>
+        <v>1752141964990.0454</v>
+      </c>
+      <c r="E237" s="2">
+        <f t="shared" si="19"/>
+        <v>56551763.911956526</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="20"/>
+        <v>56551663.911956526</v>
+      </c>
+      <c r="G237" s="3">
+        <f t="shared" si="21"/>
+        <v>385605123.65930104</v>
+      </c>
+      <c r="H237" s="3">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="238" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="1">
+        <v>44040</v>
+      </c>
+      <c r="C238">
+        <v>209</v>
+      </c>
+      <c r="D238" s="2">
+        <f t="shared" si="18"/>
+        <v>2117097685559.7034</v>
+      </c>
+      <c r="E238" s="2">
+        <f t="shared" si="19"/>
+        <v>63027613.344019398</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="20"/>
+        <v>63027513.344019398</v>
+      </c>
+      <c r="G238" s="3">
+        <f t="shared" si="21"/>
+        <v>429761495.59735978</v>
+      </c>
+      <c r="H238" s="3">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="239" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="1">
+        <v>44041</v>
+      </c>
+      <c r="C239">
+        <v>210</v>
+      </c>
+      <c r="D239" s="2">
+        <f t="shared" si="18"/>
+        <v>2558070464471.5913</v>
+      </c>
+      <c r="E239" s="2">
+        <f t="shared" si="19"/>
+        <v>70245024.541194439</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="20"/>
+        <v>70244924.541194439</v>
+      </c>
+      <c r="G239" s="3">
+        <f t="shared" si="21"/>
+        <v>478974297.19130361</v>
+      </c>
+      <c r="H239" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="240" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C240">
+        <v>211</v>
+      </c>
+      <c r="D240" s="2">
+        <f t="shared" si="18"/>
+        <v>3090893984644.8057</v>
+      </c>
+      <c r="E240" s="2">
+        <f t="shared" si="19"/>
+        <v>78288915.143591002</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="20"/>
+        <v>78288815.143591002</v>
+      </c>
+      <c r="G240" s="3">
+        <f t="shared" si="21"/>
+        <v>533822549.76337314</v>
+      </c>
+      <c r="H240" s="3">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B241" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C241">
+        <v>212</v>
+      </c>
+      <c r="D241" s="2">
+        <f t="shared" si="18"/>
+        <v>3734699945525.8779</v>
+      </c>
+      <c r="E241" s="2">
+        <f t="shared" si="19"/>
+        <v>87253926.870877922</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="20"/>
+        <v>87253826.870877922</v>
+      </c>
+      <c r="G241" s="3">
+        <f t="shared" si="21"/>
+        <v>594951579.4624207</v>
+      </c>
+      <c r="H241" s="3">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B242" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C242">
+        <v>213</v>
+      </c>
+      <c r="D242" s="2">
+        <f t="shared" si="18"/>
+        <v>4512605010848.9395</v>
+      </c>
+      <c r="E242" s="2">
+        <f t="shared" si="19"/>
+        <v>97245539.045022085</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="20"/>
+        <v>97245439.045022085</v>
+      </c>
+      <c r="G242" s="3">
+        <f t="shared" si="21"/>
+        <v>663080609.95499706</v>
+      </c>
+      <c r="H242" s="3">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B243" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C243">
+        <v>214</v>
+      </c>
+      <c r="D243" s="2">
+        <f t="shared" si="18"/>
+        <v>5452540841556.5732</v>
+      </c>
+      <c r="E243" s="2">
+        <f t="shared" si="19"/>
+        <v>108381309.62462392</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="20"/>
+        <v>108381209.62462392</v>
+      </c>
+      <c r="G243" s="3">
+        <f t="shared" si="21"/>
+        <v>739011224.56985152</v>
+      </c>
+      <c r="H243" s="3">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B244" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C244">
+        <v>215</v>
+      </c>
+      <c r="D244" s="2">
+        <f t="shared" si="18"/>
+        <v>6588257017258.7598</v>
+      </c>
+      <c r="E244" s="2">
+        <f t="shared" si="19"/>
+        <v>120792258.35244019</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="20"/>
+        <v>120792158.35244019</v>
+      </c>
+      <c r="G244" s="3">
+        <f t="shared" si="21"/>
+        <v>823636797.45860362</v>
+      </c>
+      <c r="H244" s="3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B245" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C245">
+        <v>216</v>
+      </c>
+      <c r="D245" s="2">
+        <f t="shared" si="18"/>
+        <v>7960532857387.6377</v>
+      </c>
+      <c r="E245" s="2">
+        <f t="shared" si="19"/>
+        <v>134624408.28974497</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="20"/>
+        <v>134624308.28974497</v>
+      </c>
+      <c r="G245" s="3">
+        <f t="shared" si="21"/>
+        <v>917953004.7364589</v>
+      </c>
+      <c r="H245" s="3">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B246" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C246">
+        <v>217</v>
+      </c>
+      <c r="D246" s="2">
+        <f t="shared" si="18"/>
+        <v>9618641654012.9434</v>
+      </c>
+      <c r="E246" s="2">
+        <f t="shared" si="19"/>
+        <v>150040503.87470731</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="20"/>
+        <v>150040403.87470731</v>
+      </c>
+      <c r="G246" s="3">
+        <f t="shared" si="21"/>
+        <v>1023069539.2735226</v>
+      </c>
+      <c r="H246" s="3">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B247" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C247">
+        <v>218</v>
+      </c>
+      <c r="D247" s="2">
+        <f t="shared" si="18"/>
+        <v>11622119891440.832</v>
+      </c>
+      <c r="E247" s="2">
+        <f t="shared" si="19"/>
+        <v>167221925.71888143</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="20"/>
+        <v>167221825.71888143</v>
+      </c>
+      <c r="G247" s="3">
+        <f t="shared" si="21"/>
+        <v>1140223166.9690249</v>
+      </c>
+      <c r="H247" s="3">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B248" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C248">
+        <v>219</v>
+      </c>
+      <c r="D248" s="2">
+        <f t="shared" si="18"/>
+        <v>14042904978653.693</v>
+      </c>
+      <c r="E248" s="2">
+        <f t="shared" si="19"/>
+        <v>186370824.67066327</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="20"/>
+        <v>186370724.67066327</v>
+      </c>
+      <c r="G248" s="3">
+        <f t="shared" si="21"/>
+        <v>1270792278.124198</v>
+      </c>
+      <c r="H248" s="3">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B249" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C249">
+        <v>220</v>
+      </c>
+      <c r="D249" s="2">
+        <f t="shared" si="18"/>
+        <v>16967918252566.641</v>
+      </c>
+      <c r="E249" s="2">
+        <f t="shared" si="19"/>
+        <v>207712500.25439221</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="20"/>
+        <v>207712400.25439221</v>
+      </c>
+      <c r="G249" s="3">
+        <f t="shared" si="21"/>
+        <v>1416313105.1203761</v>
+      </c>
+      <c r="H249" s="3">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B250" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C250">
+        <v>221</v>
+      </c>
+      <c r="D250" s="2">
+        <f t="shared" si="18"/>
+        <v>20502185998084.52</v>
+      </c>
+      <c r="E250" s="2">
+        <f t="shared" si="19"/>
+        <v>231498051.46900949</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="20"/>
+        <v>231497951.46900949</v>
+      </c>
+      <c r="G250" s="3">
+        <f t="shared" si="21"/>
+        <v>1578497797.2140894</v>
+      </c>
+      <c r="H250" s="3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B251" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C251">
+        <v>222</v>
+      </c>
+      <c r="D251" s="2">
+        <f t="shared" si="18"/>
+        <v>24772610549114.895</v>
+      </c>
+      <c r="E251" s="2">
+        <f t="shared" si="19"/>
+        <v>258007331.13468388</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="20"/>
+        <v>258007231.13468388</v>
+      </c>
+      <c r="G251" s="3">
+        <f t="shared" si="21"/>
+        <v>1759254565.1111243</v>
+      </c>
+      <c r="H251" s="3">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B252" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C252">
+        <v>223</v>
+      </c>
+      <c r="D252" s="2">
+        <f t="shared" si="18"/>
+        <v>29932526876668.352</v>
+      </c>
+      <c r="E252" s="2">
+        <f t="shared" si="19"/>
+        <v>287552238.54726022</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="20"/>
+        <v>287552138.54726022</v>
+      </c>
+      <c r="G252" s="3">
+        <f t="shared" si="21"/>
+        <v>1960710132.3338516</v>
+      </c>
+      <c r="H252" s="3">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B253" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C253">
+        <v>224</v>
+      </c>
+      <c r="D253" s="2">
+        <f t="shared" si="18"/>
+        <v>36167208274078.656</v>
+      </c>
+      <c r="E253" s="2">
+        <f t="shared" si="19"/>
+        <v>320480389.18078941</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="20"/>
+        <v>320480289.18078941</v>
+      </c>
+      <c r="G253" s="3">
+        <f t="shared" si="21"/>
+        <v>2185234757.5370922</v>
+      </c>
+      <c r="H253" s="3">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B254" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C254">
+        <v>225</v>
+      </c>
+      <c r="D254" s="2">
+        <f t="shared" si="18"/>
+        <v>43700518827903.711</v>
+      </c>
+      <c r="E254" s="2">
+        <f t="shared" si="19"/>
+        <v>357179204.61464208</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="20"/>
+        <v>357179104.61464208</v>
+      </c>
+      <c r="G254" s="3">
+        <f t="shared" si="21"/>
+        <v>2435470122.1766872</v>
+      </c>
+      <c r="H254" s="3">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B255" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C255">
+        <v>226</v>
+      </c>
+      <c r="D255" s="2">
+        <f t="shared" si="18"/>
+        <v>52802951539853.57</v>
+      </c>
+      <c r="E255" s="2">
+        <f t="shared" si="19"/>
+        <v>398080470.80590588</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="20"/>
+        <v>398080370.80590588</v>
+      </c>
+      <c r="G255" s="3">
+        <f t="shared" si="21"/>
+        <v>2714360411.6477385</v>
+      </c>
+      <c r="H255" s="3">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B256" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C256">
+        <v>227</v>
+      </c>
+      <c r="D256" s="2">
+        <f t="shared" si="18"/>
+        <v>63801340718633.086</v>
+      </c>
+      <c r="E256" s="2">
+        <f t="shared" si="19"/>
+        <v>443665418.33817393</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="20"/>
+        <v>443665318.33817393</v>
+      </c>
+      <c r="G256" s="3">
+        <f t="shared" si="21"/>
+        <v>3025186955.5827661</v>
+      </c>
+      <c r="H256" s="3">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B257" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C257">
+        <v>228</v>
+      </c>
+      <c r="D257" s="2">
+        <f t="shared" si="18"/>
+        <v>77090597377360.375</v>
+      </c>
+      <c r="E257" s="2">
+        <f t="shared" si="19"/>
+        <v>494470384.41923732</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="20"/>
+        <v>494470284.41923732</v>
+      </c>
+      <c r="G257" s="3">
+        <f t="shared" si="21"/>
+        <v>3371606834.8759179</v>
+      </c>
+      <c r="H257" s="3">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B258" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C258">
+        <v>229</v>
+      </c>
+      <c r="D258" s="2">
+        <f t="shared" si="18"/>
+        <v>93147889010781.391</v>
+      </c>
+      <c r="E258" s="2">
+        <f t="shared" si="19"/>
+        <v>551093123.24482894</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="20"/>
+        <v>551093023.24482894</v>
+      </c>
+      <c r="G258" s="3">
+        <f t="shared" si="21"/>
+        <v>3757695909.6705313</v>
+      </c>
+      <c r="H258" s="3">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B259" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C259">
+        <v>230</v>
+      </c>
+      <c r="D259" s="2">
+        <f t="shared" si="18"/>
+        <v>112549772895038.84</v>
+      </c>
+      <c r="E259" s="2">
+        <f t="shared" si="19"/>
+        <v>614199838.97406626</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="20"/>
+        <v>614199738.97406626</v>
+      </c>
+      <c r="G259" s="3">
+        <f t="shared" si="21"/>
+        <v>4187996774.5629196</v>
+      </c>
+      <c r="H259" s="3">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B260" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C260">
+        <v>231</v>
+      </c>
+      <c r="D260" s="2">
+        <f t="shared" si="18"/>
+        <v>135992898102701.16</v>
+      </c>
+      <c r="E260" s="2">
+        <f t="shared" si="19"/>
+        <v>684533024.06420231</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="20"/>
+        <v>684532924.06420231</v>
+      </c>
+      <c r="G260" s="3">
+        <f t="shared" si="21"/>
+        <v>4667572205.247242</v>
+      </c>
+      <c r="H260" s="3">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B261" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C261">
+        <v>232</v>
+      </c>
+      <c r="D261" s="2">
+        <f t="shared" si="18"/>
+        <v>164319019564959.69</v>
+      </c>
+      <c r="E261" s="2">
+        <f t="shared" si="19"/>
+        <v>762920195.18791699</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="20"/>
+        <v>762920095.18791699</v>
+      </c>
+      <c r="G261" s="3">
+        <f t="shared" si="21"/>
+        <v>5202064725.4367361</v>
+      </c>
+      <c r="H261" s="3">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B262" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C262">
+        <v>233</v>
+      </c>
+      <c r="D262" s="2">
+        <f t="shared" si="18"/>
+        <v>198545222342409.34</v>
+      </c>
+      <c r="E262" s="2">
+        <f t="shared" si="19"/>
+        <v>850283629.51701987</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="20"/>
+        <v>850283529.51701987</v>
+      </c>
+      <c r="G262" s="3">
+        <f t="shared" si="21"/>
+        <v>5797762994.9057713</v>
+      </c>
+      <c r="H262" s="3">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B263" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C263">
+        <v>234</v>
+      </c>
+      <c r="D263" s="2">
+        <f t="shared" si="18"/>
+        <v>239900441344911.88</v>
+      </c>
+      <c r="E263" s="2">
+        <f t="shared" si="19"/>
+        <v>947651215.92639744</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="20"/>
+        <v>947651115.92639744</v>
+      </c>
+      <c r="G263" s="3">
+        <f t="shared" si="21"/>
+        <v>6461675799.7521286</v>
+      </c>
+      <c r="H263" s="3">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B264" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C264">
+        <v>235</v>
+      </c>
+      <c r="D264" s="2">
+        <f t="shared" si="18"/>
+        <v>289869587787055.63</v>
+      </c>
+      <c r="E264" s="2">
+        <f t="shared" si="19"/>
+        <v>1056168548.7898765</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="20"/>
+        <v>1056168448.7898765</v>
+      </c>
+      <c r="G264" s="3">
+        <f t="shared" si="21"/>
+        <v>7201614515.4241333</v>
+      </c>
+      <c r="H264" s="3">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B265" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C265">
+        <v>236</v>
+      </c>
+      <c r="D265" s="2">
+        <f t="shared" si="18"/>
+        <v>350246866795182.94</v>
+      </c>
+      <c r="E265" s="2">
+        <f t="shared" si="19"/>
+        <v>1177112406.6594896</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="20"/>
+        <v>1177112306.6594896</v>
+      </c>
+      <c r="G265" s="3">
+        <f t="shared" si="21"/>
+        <v>8026285012.7450008</v>
+      </c>
+      <c r="H265" s="3">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B266" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C266">
+        <v>237</v>
+      </c>
+      <c r="D266" s="2">
+        <f t="shared" si="18"/>
+        <v>423200200601801.63</v>
+      </c>
+      <c r="E266" s="2">
+        <f t="shared" si="19"/>
+        <v>1311905774.4138129</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="20"/>
+        <v>1311905674.4138129</v>
+      </c>
+      <c r="G266" s="3">
+        <f t="shared" si="21"/>
+        <v>8945390088.2698059</v>
+      </c>
+      <c r="H266" s="3">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B267" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C267">
+        <v>238</v>
+      </c>
+      <c r="D267" s="2">
+        <f t="shared" si="18"/>
+        <v>511349070523268.69</v>
+      </c>
+      <c r="E267" s="2">
+        <f t="shared" si="19"/>
+        <v>1462134585.6209161</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="20"/>
+        <v>1462134485.6209161</v>
+      </c>
+      <c r="G267" s="3">
+        <f t="shared" si="21"/>
+        <v>9969743624.1363583</v>
+      </c>
+      <c r="H267" s="3">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B268" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C268">
+        <v>239</v>
+      </c>
+      <c r="D268" s="2">
+        <f t="shared" si="18"/>
+        <v>617858572735042</v>
+      </c>
+      <c r="E268" s="2">
+        <f t="shared" si="19"/>
+        <v>1629566382.1009336</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="20"/>
+        <v>1629566282.1009336</v>
+      </c>
+      <c r="G268" s="3">
+        <f t="shared" si="21"/>
+        <v>11111397820.576487</v>
+      </c>
+      <c r="H268" s="3">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B269" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C269">
+        <v>240</v>
+      </c>
+      <c r="D269" s="2">
+        <f t="shared" si="18"/>
+        <v>746553065035466.75</v>
+      </c>
+      <c r="E269" s="2">
+        <f t="shared" si="19"/>
+        <v>1816171110.2304826</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="20"/>
+        <v>1816171010.2304826</v>
+      </c>
+      <c r="G269" s="3">
+        <f t="shared" si="21"/>
+        <v>12383784998.062778</v>
+      </c>
+      <c r="H269" s="3">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B270" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C270">
+        <v>241</v>
+      </c>
+      <c r="D270" s="2">
+        <f t="shared" si="18"/>
+        <v>902053485228329.25</v>
+      </c>
+      <c r="E270" s="2">
+        <f t="shared" si="19"/>
+        <v>2024144298.6711786</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="20"/>
+        <v>2024144198.6711786</v>
+      </c>
+      <c r="G270" s="3">
+        <f t="shared" si="21"/>
+        <v>13801875637.487354</v>
+      </c>
+      <c r="H270" s="3">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B271" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C271">
+        <v>242</v>
+      </c>
+      <c r="D271" s="2">
+        <f t="shared" si="18"/>
+        <v>1089943271713611.8</v>
+      </c>
+      <c r="E271" s="2">
+        <f t="shared" si="19"/>
+        <v>2255932890.2236991</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="20"/>
+        <v>2255932790.2236991</v>
+      </c>
+      <c r="G271" s="3">
+        <f t="shared" si="21"/>
+        <v>15382354517.820358</v>
+      </c>
+      <c r="H271" s="3">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="272" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B272" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C272">
+        <v>243</v>
+      </c>
+      <c r="D272" s="2">
+        <f t="shared" si="18"/>
+        <v>1316968843874118.5</v>
+      </c>
+      <c r="E272" s="2">
+        <f t="shared" si="19"/>
+        <v>2514264031.7363133</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="20"/>
+        <v>2514263931.7363133</v>
+      </c>
+      <c r="G272" s="3">
+        <f t="shared" si="21"/>
+        <v>17143817023.624819</v>
+      </c>
+      <c r="H272" s="3">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B273" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C273">
+        <v>244</v>
+      </c>
+      <c r="D273" s="2">
+        <f t="shared" si="18"/>
+        <v>1591281840758814</v>
+      </c>
+      <c r="E273" s="2">
+        <f t="shared" si="19"/>
+        <v>2802177160.8002381</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="20"/>
+        <v>2802177060.8002381</v>
+      </c>
+      <c r="G273" s="3">
+        <f t="shared" si="21"/>
+        <v>19106987932.116306</v>
+      </c>
+      <c r="H273" s="3">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B274" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C274">
+        <v>245</v>
+      </c>
+      <c r="D274" s="2">
+        <f t="shared" si="18"/>
+        <v>1922731815947814.3</v>
+      </c>
+      <c r="E274" s="2">
+        <f t="shared" si="19"/>
+        <v>3123059766.7532444</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="20"/>
+        <v>3123059666.7532444</v>
+      </c>
+      <c r="G274" s="3">
+        <f t="shared" si="21"/>
+        <v>21294965253.942478</v>
+      </c>
+      <c r="H274" s="3">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B275" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C275">
+        <v>246</v>
+      </c>
+      <c r="D275" s="2">
+        <f t="shared" si="18"/>
+        <v>2323219898176609.5</v>
+      </c>
+      <c r="E275" s="2">
+        <f t="shared" si="19"/>
+        <v>3480687246.7433324</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="20"/>
+        <v>3480687146.7433324</v>
+      </c>
+      <c r="G275" s="3">
+        <f t="shared" si="21"/>
+        <v>23733491996.631523</v>
+      </c>
+      <c r="H275" s="3">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B276" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C276">
+        <v>247</v>
+      </c>
+      <c r="D276" s="2">
+        <f t="shared" si="18"/>
+        <v>2807126116349753.5</v>
+      </c>
+      <c r="E276" s="2">
+        <f t="shared" si="19"/>
+        <v>3879267325.7856712</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="20"/>
+        <v>3879267225.7856712</v>
+      </c>
+      <c r="G276" s="3">
+        <f t="shared" si="21"/>
+        <v>26451259048.186935</v>
+      </c>
+      <c r="H276" s="3">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B277" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C277">
+        <v>248</v>
+      </c>
+      <c r="D277" s="2">
+        <f t="shared" si="18"/>
+        <v>3391825732586712.5</v>
+      </c>
+      <c r="E277" s="2">
+        <f t="shared" si="19"/>
+        <v>4323489563.4442692</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="20"/>
+        <v>4323489463.4442692</v>
+      </c>
+      <c r="G277" s="3">
+        <f t="shared" si="21"/>
+        <v>29480242744.455585</v>
+      </c>
+      <c r="H277" s="3">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B278" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C278">
+        <v>249</v>
+      </c>
+      <c r="D278" s="2">
+        <f t="shared" ref="D278:D304" si="22">IF(C278&lt;tzero_trial,0,EXP(lambda1*(C278-tzero_trial)))</f>
+        <v>4098313122887846</v>
+      </c>
+      <c r="E278" s="2">
+        <f t="shared" ref="E278:E304" si="23">IF(C278&lt;=tprime,D278,INDEX($D$30:$D$149,tprime)*EXP(lambda2*(C278-tprime)))</f>
+        <v>4818580529.6173115</v>
+      </c>
+      <c r="F278">
+        <f t="shared" ref="F278:F304" si="24">ABS(E278-admrate_today)</f>
+        <v>4818580429.6173115</v>
+      </c>
+      <c r="G278" s="3">
+        <f t="shared" ref="G278:G304" si="25">SUM(E264:E277)</f>
+        <v>32856081091.973457</v>
+      </c>
+      <c r="H278" s="3">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B279" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C279">
+        <v>250</v>
+      </c>
+      <c r="D279" s="2">
+        <f t="shared" si="22"/>
+        <v>4951955606641773</v>
+      </c>
+      <c r="E279" s="2">
+        <f t="shared" si="23"/>
+        <v>5370365298.6061726</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="24"/>
+        <v>5370365198.6061726</v>
+      </c>
+      <c r="G279" s="3">
+        <f t="shared" si="25"/>
+        <v>36618493072.800888</v>
+      </c>
+      <c r="H279" s="3">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B280" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C280">
+        <v>251</v>
+      </c>
+      <c r="D280" s="2">
+        <f t="shared" si="22"/>
+        <v>5983404292171778</v>
+      </c>
+      <c r="E280" s="2">
+        <f t="shared" si="23"/>
+        <v>5985335984.9864082</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="24"/>
+        <v>5985335884.9864082</v>
+      </c>
+      <c r="G280" s="3">
+        <f t="shared" si="25"/>
+        <v>40811745964.747574</v>
+      </c>
+      <c r="H280" s="3">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B281" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C281">
+        <v>252</v>
+      </c>
+      <c r="D281" s="2">
+        <f t="shared" si="22"/>
+        <v>7229694643377188</v>
+      </c>
+      <c r="E281" s="2">
+        <f t="shared" si="23"/>
+        <v>6670728127.6510296</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="24"/>
+        <v>6670728027.6510296</v>
+      </c>
+      <c r="G281" s="3">
+        <f t="shared" si="25"/>
+        <v>45485176175.32016</v>
+      </c>
+      <c r="H281" s="3">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B282" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C282">
+        <v>253</v>
+      </c>
+      <c r="D282" s="2">
+        <f t="shared" si="22"/>
+        <v>8735576284701413</v>
+      </c>
+      <c r="E282" s="2">
+        <f t="shared" si="23"/>
+        <v>7434605820.7350025</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="24"/>
+        <v>7434605720.7350025</v>
+      </c>
+      <c r="G282" s="3">
+        <f t="shared" si="25"/>
+        <v>50693769717.350281</v>
+      </c>
+      <c r="H282" s="3">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B283" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C283">
+        <v>254</v>
+      </c>
+      <c r="D283" s="2">
+        <f t="shared" si="22"/>
+        <v>1.055511979274849E+16</v>
+      </c>
+      <c r="E283" s="2">
+        <f t="shared" si="23"/>
+        <v>8285956593.0429306</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="24"/>
+        <v>8285956493.0429306</v>
+      </c>
+      <c r="G283" s="3">
+        <f t="shared" si="25"/>
+        <v>56498809155.984344</v>
+      </c>
+      <c r="H283" s="3">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B284" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C284">
+        <v>255</v>
+      </c>
+      <c r="D284" s="2">
+        <f t="shared" si="22"/>
+        <v>1.2753658168423744E+16</v>
+      </c>
+      <c r="E284" s="2">
+        <f t="shared" si="23"/>
+        <v>9234797152.2992954</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="24"/>
+        <v>9234797052.2992954</v>
+      </c>
+      <c r="G284" s="3">
+        <f t="shared" si="25"/>
+        <v>62968594638.796791</v>
+      </c>
+      <c r="H284" s="3">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B285" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C285">
+        <v>256</v>
+      </c>
+      <c r="D285" s="2">
+        <f t="shared" si="22"/>
+        <v>1.5410132700601586E+16</v>
+      </c>
+      <c r="E285" s="2">
+        <f t="shared" si="23"/>
+        <v>10292291238.373051</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="24"/>
+        <v>10292291138.373051</v>
+      </c>
+      <c r="G285" s="3">
+        <f t="shared" si="25"/>
+        <v>70179247492.424911</v>
+      </c>
+      <c r="H285" s="3">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B286" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C286">
+        <v>257</v>
+      </c>
+      <c r="D286" s="2">
+        <f t="shared" si="22"/>
+        <v>1.8619927452509244E+16</v>
+      </c>
+      <c r="E286" s="2">
+        <f t="shared" si="23"/>
+        <v>11470880972.097555</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="24"/>
+        <v>11470880872.097555</v>
+      </c>
+      <c r="G286" s="3">
+        <f t="shared" si="25"/>
+        <v>78215605840.574265</v>
+      </c>
+      <c r="H286" s="3">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B287" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C287">
+        <v>258</v>
+      </c>
+      <c r="D287" s="2">
+        <f t="shared" si="22"/>
+        <v>2.2498294146628128E+16</v>
+      </c>
+      <c r="E287" s="2">
+        <f t="shared" si="23"/>
+        <v>12784433245.092409</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="24"/>
+        <v>12784433145.092409</v>
+      </c>
+      <c r="G287" s="3">
+        <f t="shared" si="25"/>
+        <v>87172222780.935501</v>
+      </c>
+      <c r="H287" s="3">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B288" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C288">
+        <v>259</v>
+      </c>
+      <c r="D288" s="2">
+        <f t="shared" si="22"/>
+        <v>2.7184490422919736E+16</v>
+      </c>
+      <c r="E288" s="2">
+        <f t="shared" si="23"/>
+        <v>14248402872.960661</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="24"/>
+        <v>14248402772.960661</v>
+      </c>
+      <c r="G288" s="3">
+        <f t="shared" si="25"/>
+        <v>97154478865.227661</v>
+      </c>
+      <c r="H288" s="3">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="289" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B289" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C289">
+        <v>260</v>
+      </c>
+      <c r="D289" s="2">
+        <f t="shared" si="22"/>
+        <v>3.2846780059748456E+16</v>
+      </c>
+      <c r="E289" s="2">
+        <f t="shared" si="23"/>
+        <v>15880014431.466921</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="24"/>
+        <v>15880014331.466921</v>
+      </c>
+      <c r="G289" s="3">
+        <f t="shared" si="25"/>
+        <v>108279821971.43509</v>
+      </c>
+      <c r="H289" s="3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="290" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B290" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C290">
+        <v>261</v>
+      </c>
+      <c r="D290" s="2">
+        <f t="shared" si="22"/>
+        <v>3.9688474696727784E+16</v>
+      </c>
+      <c r="E290" s="2">
+        <f t="shared" si="23"/>
+        <v>17698464915.120586</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="24"/>
+        <v>17698464815.120586</v>
+      </c>
+      <c r="G290" s="3">
+        <f t="shared" si="25"/>
+        <v>120679149156.15868</v>
+      </c>
+      <c r="H290" s="3">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="291" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B291" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C291">
+        <v>262</v>
+      </c>
+      <c r="D291" s="2">
+        <f t="shared" si="22"/>
+        <v>4.7955233995159928E+16</v>
+      </c>
+      <c r="E291" s="2">
+        <f t="shared" si="23"/>
+        <v>19725149602.576218</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="24"/>
+        <v>19725149502.576218</v>
+      </c>
+      <c r="G291" s="3">
+        <f t="shared" si="25"/>
+        <v>134498346745.49359</v>
+      </c>
+      <c r="H291" s="3">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="292" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B292" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C292">
+        <v>263</v>
+      </c>
+      <c r="D292" s="2">
+        <f t="shared" si="22"/>
+        <v>5.7943886357521416E+16</v>
+      </c>
+      <c r="E292" s="2">
+        <f t="shared" si="23"/>
+        <v>21983913786.308277</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="24"/>
+        <v>21983913686.308277</v>
+      </c>
+      <c r="G292" s="3">
+        <f t="shared" si="25"/>
+        <v>149900006784.62555</v>
+      </c>
+      <c r="H292" s="3">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="293" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B293" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C293">
+        <v>264</v>
+      </c>
+      <c r="D293" s="2">
+        <f t="shared" si="22"/>
+        <v>7.0013086925031464E+16</v>
+      </c>
+      <c r="E293" s="2">
+        <f t="shared" si="23"/>
+        <v>24501333328.326916</v>
+      </c>
+      <c r="F293">
+        <f t="shared" si="24"/>
+        <v>24501333228.326916</v>
+      </c>
+      <c r="G293" s="3">
+        <f t="shared" si="25"/>
+        <v>167065340041.31653</v>
+      </c>
+      <c r="H293" s="3">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="294" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B294" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C294">
+        <v>265</v>
+      </c>
+      <c r="D294" s="2">
+        <f t="shared" si="22"/>
+        <v>8.4596195542132368E+16</v>
+      </c>
+      <c r="E294" s="2">
+        <f t="shared" si="23"/>
+        <v>27307027342.85947</v>
+      </c>
+      <c r="F294">
+        <f t="shared" si="24"/>
+        <v>27307027242.85947</v>
+      </c>
+      <c r="G294" s="3">
+        <f t="shared" si="25"/>
+        <v>186196308071.03729</v>
+      </c>
+      <c r="H294" s="3">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="295" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B295" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C295">
+        <v>266</v>
+      </c>
+      <c r="D295" s="2">
+        <f t="shared" si="22"/>
+        <v>1.0221683708741186E+17</v>
+      </c>
+      <c r="E295" s="2">
+        <f t="shared" si="23"/>
+        <v>30434006684.916637</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="24"/>
+        <v>30434006584.916637</v>
+      </c>
+      <c r="G295" s="3">
+        <f t="shared" si="25"/>
+        <v>207517999428.91031</v>
+      </c>
+      <c r="H295" s="3">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="296" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B296" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C296">
+        <v>267</v>
+      </c>
+      <c r="D296" s="2">
+        <f t="shared" si="22"/>
+        <v>1.235077028842361E+17</v>
+      </c>
+      <c r="E296" s="2">
+        <f t="shared" si="23"/>
+        <v>33919062344.944351</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="24"/>
+        <v>33919062244.944351</v>
+      </c>
+      <c r="G296" s="3">
+        <f t="shared" si="25"/>
+        <v>231281277986.1759</v>
+      </c>
+      <c r="H296" s="3">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="297" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B297" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C297">
+        <v>268</v>
+      </c>
+      <c r="D297" s="2">
+        <f t="shared" si="22"/>
+        <v>1.4923326827943318E+17</v>
+      </c>
+      <c r="E297" s="2">
+        <f t="shared" si="23"/>
+        <v>37803198319.280823</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="24"/>
+        <v>37803198219.280823</v>
+      </c>
+      <c r="G297" s="3">
+        <f t="shared" si="25"/>
+        <v>257765734510.38525</v>
+      </c>
+      <c r="H297" s="3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="298" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B298" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C298">
+        <v>269</v>
+      </c>
+      <c r="D298" s="2">
+        <f t="shared" si="22"/>
+        <v>1.8031724209327661E+17</v>
+      </c>
+      <c r="E298" s="2">
+        <f t="shared" si="23"/>
+        <v>42132114049.42865</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="24"/>
+        <v>42132113949.42865</v>
+      </c>
+      <c r="G298" s="3">
+        <f t="shared" si="25"/>
+        <v>287282976236.62317</v>
+      </c>
+      <c r="H298" s="3">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="299" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B299" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C299">
+        <v>270</v>
+      </c>
+      <c r="D299" s="2">
+        <f t="shared" si="22"/>
+        <v>2.1787573354785331E+17</v>
+      </c>
+      <c r="E299" s="2">
+        <f t="shared" si="23"/>
+        <v>46956742106.360481</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="24"/>
+        <v>46956742006.360481</v>
+      </c>
+      <c r="G299" s="3">
+        <f t="shared" si="25"/>
+        <v>320180293133.7525</v>
+      </c>
+      <c r="H299" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="300" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B300" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C300">
+        <v>271</v>
+      </c>
+      <c r="D300" s="2">
+        <f t="shared" si="22"/>
+        <v>2.6325732757414157E+17</v>
+      </c>
+      <c r="E300" s="2">
+        <f t="shared" si="23"/>
+        <v>52333847446.070419</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="24"/>
+        <v>52333847346.070419</v>
+      </c>
+      <c r="G300" s="3">
+        <f t="shared" si="25"/>
+        <v>356844744001.73993</v>
+      </c>
+      <c r="H300" s="3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="301" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B301" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C301">
+        <v>272</v>
+      </c>
+      <c r="D301" s="2">
+        <f t="shared" si="22"/>
+        <v>3.1809150745214656E+17</v>
+      </c>
+      <c r="E301" s="2">
+        <f t="shared" si="23"/>
+        <v>58326695287.013657</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="24"/>
+        <v>58326695187.013657</v>
+      </c>
+      <c r="G301" s="3">
+        <f t="shared" si="25"/>
+        <v>397707710475.71283</v>
+      </c>
+      <c r="H301" s="3">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="302" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B302" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C302">
+        <v>273</v>
+      </c>
+      <c r="D302" s="2">
+        <f t="shared" si="22"/>
+        <v>3.8434716345998842E+17</v>
+      </c>
+      <c r="E302" s="2">
+        <f t="shared" si="23"/>
+        <v>65005795467.453003</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="24"/>
+        <v>65005795367.453003</v>
+      </c>
+      <c r="G302" s="3">
+        <f t="shared" si="25"/>
+        <v>443249972517.63409</v>
+      </c>
+      <c r="H302" s="3">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="303" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B303" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C303">
+        <v>274</v>
+      </c>
+      <c r="D303" s="2">
+        <f t="shared" si="22"/>
+        <v>4.644032883586601E+17</v>
+      </c>
+      <c r="E303" s="2">
+        <f t="shared" si="23"/>
+        <v>72449732040.5737</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="24"/>
+        <v>72449731940.5737</v>
+      </c>
+      <c r="G303" s="3">
+        <f t="shared" si="25"/>
+        <v>494007365112.1264</v>
+      </c>
+      <c r="H303" s="3">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="304" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B304" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C304">
+        <v>275</v>
+      </c>
+      <c r="D304" s="2">
+        <f t="shared" si="22"/>
+        <v>5.6113439812282797E+17</v>
+      </c>
+      <c r="E304" s="2">
+        <f t="shared" si="23"/>
+        <v>80746087868.103912</v>
+      </c>
+      <c r="F304">
+        <f t="shared" si="24"/>
+        <v>80746087768.103912</v>
+      </c>
+      <c r="G304" s="3">
+        <f t="shared" si="25"/>
+        <v>550577082721.23315</v>
+      </c>
+      <c r="H304" s="3">
+        <v>1105</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
